--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325296.1703089146</v>
+        <v>319897.7603371356</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8519038.508327486</v>
+        <v>8519038.508327488</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4841499.668955487</v>
+        <v>4841499.668955486</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.091688641907773</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.09074280866704</v>
       </c>
       <c r="D2" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="E2" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.03641654712531528</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.127159355792363</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.505703897832522</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.040345688132867</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.672798411734712</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.672798411734751</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
     </row>
     <row r="4">
@@ -898,16 +898,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.72841547677697</v>
+      </c>
+      <c r="E5" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.72841547677697</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.089093774433805</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>10.44271547525859</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.089093774433805</v>
+      </c>
+      <c r="X6" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.5891238419305923</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5891238419305923</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>23.50971295904437</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>10.03700156004394</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>17.79601311665963</v>
       </c>
       <c r="V9" t="n">
         <v>23.50971295904437</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.79601311665963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.183833028195925</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.801184543960273</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>85.38724587028187</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>280.1228946992246</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.46645473176488</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6560087652268</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="X11" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>328.6962236195703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.34175259801627</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>45.3914455098935</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>137.3515246445759</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>98.8920522989239</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>45.56489263963997</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>75.72787964625903</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.947615862892</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6078067650159</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>79.32031935561108</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>176.7092689117261</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.6743638976546</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.4044229297792</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6560087652268</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>362.9363804469287</v>
+        <v>223.5721723714921</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>66.18107509214929</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>137.3515246445759</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8697587599179</v>
       </c>
       <c r="V15" t="n">
-        <v>127.0378871126751</v>
+        <v>122.4638602244975</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.8954845398966</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48646004136225</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.1620133012059</v>
       </c>
       <c r="T16" t="n">
-        <v>238.1424220369538</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.81272625025587</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>107.2699409678752</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="H17" t="n">
-        <v>73.04021485434343</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.4044229297792</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6560087652268</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>362.9363804469284</v>
       </c>
     </row>
     <row r="18">
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.45510471112934</v>
+        <v>92.34175259801627</v>
       </c>
       <c r="H18" t="n">
-        <v>45.39144550989351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>66.18107509214927</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>137.3515246445759</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>182.8697587599179</v>
@@ -1988,10 +1988,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>31.09265239340435</v>
       </c>
     </row>
     <row r="19">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>69.84067585812548</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>183.4997418405654</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>107.2699409678752</v>
       </c>
       <c r="C20" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>119.6169719838148</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>280.1228946992246</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.46645473176487</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.4044229297792</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>362.9363804469284</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.731665552931481</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>137.3515246445759</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8697587599179</v>
+        <v>51.31600704110319</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -2225,7 +2225,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>138.2959597602405</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>97.08647511495981</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>136.6078067650159</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>154.4496910760866</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>49.08295918180598</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>272.4501756712337</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H24" t="n">
-        <v>41.04430296570791</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T24" t="n">
         <v>135.5372539824022</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>175.19127018182</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.12301297744206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.012519220714</v>
@@ -2614,13 +2614,13 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>53.83477065318687</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>405.9905086838602</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>90.84151967884439</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.14490164706598</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>348.7119760330627</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>307.4608386230946</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W30" t="n">
-        <v>194.5561633951149</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X30" t="n">
         <v>161.8425727710037</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>124.360317283028</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.12301297744206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>157.7025606963817</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>355.1237189189492</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3122,7 +3122,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>91.89163974602977</v>
+        <v>91.89163974602971</v>
       </c>
       <c r="H33" t="n">
         <v>41.04430296570798</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T33" t="n">
         <v>135.5372539824022</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>8.426909518547596</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>133.0837362834693</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>141.6454744394804</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>41.95582820782027</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>72.23533564310021</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
-        <v>5.345438250826338</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
-        <v>184.2412034899495</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
         <v>255.5887081042933</v>
@@ -3565,13 +3565,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>320.9749089007543</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.93802506833838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>250.2944838570237</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>267.2271163273548</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>396.3378659018156</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.5887081042933</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T42" t="n">
         <v>135.5372539824022</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>99.92062580628604</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>157.2980222015714</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>236.2766933574946</v>
+        <v>383.1300879120811</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H45" t="n">
-        <v>41.04430296570799</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710033</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
         <v>138.2959597602405</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.77263324455982</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>21.48694813762873</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.99418083258045</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="C2" t="n">
-        <v>16.99418083258045</v>
+        <v>25.20438809422998</v>
       </c>
       <c r="D2" t="n">
-        <v>8.820757961966534</v>
+        <v>17.03096522361609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6473350913526218</v>
+        <v>8.85754235300219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6841194823882927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L2" t="n">
-        <v>3.221710050338451</v>
+        <v>3.221710050338442</v>
       </c>
       <c r="M2" t="n">
-        <v>11.23248180582715</v>
+        <v>11.23248180582712</v>
       </c>
       <c r="N2" t="n">
-        <v>19.24325356131584</v>
+        <v>19.2432535613158</v>
       </c>
       <c r="O2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="P2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="R2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="S2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="T2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="U2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="V2" t="n">
-        <v>25.47097909087691</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="W2" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="X2" t="n">
-        <v>25.16760370319436</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.16760370319436</v>
+        <v>32.36675456763103</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="C3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="D3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="E3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="F3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="G3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="H3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="I3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L3" t="n">
-        <v>8.17474802906519</v>
+        <v>3.664206143180497</v>
       </c>
       <c r="M3" t="n">
-        <v>16.18551978455389</v>
+        <v>11.67497789866918</v>
       </c>
       <c r="N3" t="n">
-        <v>24.19629154004258</v>
+        <v>19.68574965415786</v>
       </c>
       <c r="O3" t="n">
-        <v>27.69652140964659</v>
+        <v>27.69652140964654</v>
       </c>
       <c r="P3" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.27549629678981</v>
+        <v>27.27549629678975</v>
       </c>
       <c r="R3" t="n">
-        <v>27.27549629678981</v>
+        <v>24.57569992130014</v>
       </c>
       <c r="S3" t="n">
-        <v>27.27549629678981</v>
+        <v>24.57569992130014</v>
       </c>
       <c r="T3" t="n">
-        <v>27.27549629678981</v>
+        <v>24.57569992130014</v>
       </c>
       <c r="U3" t="n">
-        <v>27.27549629678981</v>
+        <v>24.57569992130014</v>
       </c>
       <c r="V3" t="n">
-        <v>27.27549629678981</v>
+        <v>24.57569992130014</v>
       </c>
       <c r="W3" t="n">
-        <v>24.57569992130016</v>
+        <v>24.57569992130014</v>
       </c>
       <c r="X3" t="n">
-        <v>16.40227705068625</v>
+        <v>16.40227705068624</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.228854180072341</v>
+        <v>8.228854180072343</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6473350913526218</v>
+        <v>0.6473350913526207</v>
       </c>
     </row>
     <row r="5">
@@ -4546,13 +4546,13 @@
         <v>48.08880803352017</v>
       </c>
       <c r="C5" t="n">
-        <v>29.68647745745945</v>
+        <v>48.08880803352017</v>
       </c>
       <c r="D5" t="n">
-        <v>11.28414688139873</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="E5" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="F5" t="n">
         <v>1.457464581624009</v>
@@ -4570,10 +4570,10 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992287</v>
+        <v>5.219099475992273</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088184</v>
+        <v>15.88227649088182</v>
       </c>
       <c r="M5" t="n">
         <v>32.89339907886392</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.07389656998497</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="C6" t="n">
-        <v>21.07389656998497</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="D6" t="n">
-        <v>21.07389656998497</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="E6" t="n">
-        <v>21.07389656998497</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="F6" t="n">
-        <v>21.07389656998497</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="G6" t="n">
-        <v>21.07389656998497</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="H6" t="n">
         <v>16.94349881803164</v>
@@ -4658,7 +4658,7 @@
         <v>37.40429894547091</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916133</v>
+        <v>55.44042314306802</v>
       </c>
       <c r="O6" t="n">
         <v>62.96599962173946</v>
@@ -4679,19 +4679,19 @@
         <v>57.87855772210641</v>
       </c>
       <c r="U6" t="n">
-        <v>39.47622714604569</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="V6" t="n">
-        <v>21.07389656998497</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="W6" t="n">
-        <v>21.07389656998497</v>
+        <v>53.74815997015308</v>
       </c>
       <c r="X6" t="n">
-        <v>21.07389656998497</v>
+        <v>35.34582939409236</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.07389656998497</v>
+        <v>16.94349881803164</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="C7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="D7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="E7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="F7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="G7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="H7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="I7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="J7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="K7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="L7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="M7" t="n">
         <v>1.457464581624009</v>
@@ -4764,13 +4764,13 @@
         <v>2.052539169432688</v>
       </c>
       <c r="W7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="X7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432688</v>
       </c>
     </row>
     <row r="8">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.83244368874286</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="C9" t="n">
-        <v>15.83244368874286</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="D9" t="n">
-        <v>15.83244368874286</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="E9" t="n">
-        <v>15.83244368874286</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="F9" t="n">
-        <v>15.83244368874286</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="G9" t="n">
-        <v>15.83244368874286</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="H9" t="n">
         <v>15.83244368874286</v>
@@ -4886,13 +4886,13 @@
         <v>1.88077703672355</v>
       </c>
       <c r="K9" t="n">
-        <v>8.19312939818548</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L9" t="n">
-        <v>24.2082790785488</v>
+        <v>17.89592671708687</v>
       </c>
       <c r="M9" t="n">
-        <v>46.04269444771658</v>
+        <v>39.73034208625465</v>
       </c>
       <c r="N9" t="n">
         <v>62.86984279257508</v>
@@ -4916,16 +4916,16 @@
         <v>81.30258412788264</v>
       </c>
       <c r="U9" t="n">
-        <v>81.30258412788264</v>
+        <v>63.32681330297392</v>
       </c>
       <c r="V9" t="n">
-        <v>57.55539932076711</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="W9" t="n">
-        <v>57.55539932076711</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="X9" t="n">
-        <v>57.55539932076711</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="Y9" t="n">
         <v>39.57962849585839</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="C10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="D10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="E10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="F10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="G10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="H10" t="n">
-        <v>1.88077703672355</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="I10" t="n">
-        <v>1.88077703672355</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="J10" t="n">
-        <v>1.88077703672355</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="K10" t="n">
         <v>1.88077703672355</v>
@@ -4977,37 +4977,37 @@
         <v>5.096769994497212</v>
       </c>
       <c r="O10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="P10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="R10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="S10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="T10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="U10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="V10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="W10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="X10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.096769994497212</v>
+        <v>3.700155363956149</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.03491043575429</v>
+        <v>311.98732932386</v>
       </c>
       <c r="C11" t="n">
-        <v>29.03491043575429</v>
+        <v>311.98732932386</v>
       </c>
       <c r="D11" t="n">
-        <v>29.03491043575429</v>
+        <v>311.98732932386</v>
       </c>
       <c r="E11" t="n">
-        <v>29.03491043575429</v>
+        <v>311.98732932386</v>
       </c>
       <c r="F11" t="n">
-        <v>29.03491043575429</v>
+        <v>311.98732932386</v>
       </c>
       <c r="G11" t="n">
-        <v>29.03491043575429</v>
+        <v>311.98732932386</v>
       </c>
       <c r="H11" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I11" t="n">
-        <v>49.86523077302947</v>
+        <v>49.8652307730294</v>
       </c>
       <c r="J11" t="n">
-        <v>141.8946578048362</v>
+        <v>141.894657804836</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0679219725716</v>
+        <v>288.0679219725714</v>
       </c>
       <c r="L11" t="n">
-        <v>475.4053179987475</v>
+        <v>475.4053179987473</v>
       </c>
       <c r="M11" t="n">
-        <v>689.0005507143567</v>
+        <v>689.0005507143563</v>
       </c>
       <c r="N11" t="n">
-        <v>906.8017214638056</v>
+        <v>906.8017214638051</v>
       </c>
       <c r="O11" t="n">
-        <v>1110.29821093573</v>
+        <v>1110.298210935729</v>
       </c>
       <c r="P11" t="n">
-        <v>1278.37134400276</v>
+        <v>1278.371344002759</v>
       </c>
       <c r="Q11" t="n">
-        <v>1396.759196036768</v>
+        <v>1396.759196036767</v>
       </c>
       <c r="R11" t="n">
-        <v>1451.745521787715</v>
+        <v>1451.745521787714</v>
       </c>
       <c r="S11" t="n">
-        <v>1451.745521787715</v>
+        <v>1380.567284684921</v>
       </c>
       <c r="T11" t="n">
-        <v>1451.745521787715</v>
+        <v>1380.567284684921</v>
       </c>
       <c r="U11" t="n">
-        <v>1451.745521787715</v>
+        <v>1122.328891992772</v>
       </c>
       <c r="V11" t="n">
-        <v>1094.256106913964</v>
+        <v>764.8394771190219</v>
       </c>
       <c r="W11" t="n">
-        <v>727.653702422117</v>
+        <v>398.237072627175</v>
       </c>
       <c r="X11" t="n">
-        <v>361.0512979302698</v>
+        <v>398.237072627175</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.03491043575429</v>
+        <v>398.237072627175</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.8529789803654</v>
+        <v>122.6807407528501</v>
       </c>
       <c r="C12" t="n">
-        <v>470.3470754978702</v>
+        <v>122.6807407528501</v>
       </c>
       <c r="D12" t="n">
-        <v>366.5071170131552</v>
+        <v>122.6807407528501</v>
       </c>
       <c r="E12" t="n">
-        <v>261.8051832860924</v>
+        <v>122.6807407528501</v>
       </c>
       <c r="F12" t="n">
-        <v>168.1593529689965</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="G12" t="n">
-        <v>74.88485539524268</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H12" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I12" t="n">
-        <v>39.32059938368415</v>
+        <v>39.3205993836841</v>
       </c>
       <c r="J12" t="n">
-        <v>91.07479552862547</v>
+        <v>91.07479552862539</v>
       </c>
       <c r="K12" t="n">
-        <v>192.2311190452097</v>
+        <v>192.2311190452095</v>
       </c>
       <c r="L12" t="n">
-        <v>335.7756924166484</v>
+        <v>335.7756924166482</v>
       </c>
       <c r="M12" t="n">
-        <v>506.4309300589892</v>
+        <v>506.4309300589888</v>
       </c>
       <c r="N12" t="n">
-        <v>683.9443088400237</v>
+        <v>683.9443088400232</v>
       </c>
       <c r="O12" t="n">
-        <v>842.7236536513713</v>
+        <v>842.7236536513706</v>
       </c>
       <c r="P12" t="n">
-        <v>967.0164528322539</v>
+        <v>967.0164528322531</v>
       </c>
       <c r="Q12" t="n">
-        <v>1041.991028069201</v>
+        <v>1041.9910280692</v>
       </c>
       <c r="R12" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="S12" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="T12" t="n">
-        <v>1065.975367360917</v>
+        <v>927.2364535785164</v>
       </c>
       <c r="U12" t="n">
-        <v>1065.975367360917</v>
+        <v>827.3454916604114</v>
       </c>
       <c r="V12" t="n">
-        <v>1065.975367360917</v>
+        <v>622.3723527996776</v>
       </c>
       <c r="W12" t="n">
-        <v>1019.950223280473</v>
+        <v>425.8509756328948</v>
       </c>
       <c r="X12" t="n">
-        <v>856.4728770471357</v>
+        <v>262.3736293995577</v>
       </c>
       <c r="Y12" t="n">
-        <v>716.7799884004281</v>
+        <v>122.6807407528501</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="C13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="D13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="E13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="F13" t="n">
-        <v>412.7477811261775</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="G13" t="n">
-        <v>247.144128739418</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H13" t="n">
-        <v>109.1564451383918</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I13" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="J13" t="n">
-        <v>53.87488472994728</v>
+        <v>53.87488472994723</v>
       </c>
       <c r="K13" t="n">
-        <v>107.512989273776</v>
+        <v>107.5129892737758</v>
       </c>
       <c r="L13" t="n">
-        <v>181.0109882634347</v>
+        <v>181.0109882634346</v>
       </c>
       <c r="M13" t="n">
-        <v>259.0337940079585</v>
+        <v>259.0337940079582</v>
       </c>
       <c r="N13" t="n">
-        <v>336.4782397811396</v>
+        <v>336.4782397811392</v>
       </c>
       <c r="O13" t="n">
-        <v>404.7098432503369</v>
+        <v>404.7098432503365</v>
       </c>
       <c r="P13" t="n">
-        <v>459.9961970826226</v>
+        <v>459.9961970826221</v>
       </c>
       <c r="Q13" t="n">
-        <v>489.2405888496715</v>
+        <v>489.240588849671</v>
       </c>
       <c r="R13" t="n">
-        <v>489.2405888496715</v>
+        <v>489.240588849671</v>
       </c>
       <c r="S13" t="n">
-        <v>489.2405888496715</v>
+        <v>489.240588849671</v>
       </c>
       <c r="T13" t="n">
-        <v>489.2405888496715</v>
+        <v>310.7463778277254</v>
       </c>
       <c r="U13" t="n">
-        <v>489.2405888496715</v>
+        <v>310.7463778277254</v>
       </c>
       <c r="V13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="W13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="X13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="Y13" t="n">
-        <v>489.2405888496715</v>
+        <v>29.03491043575427</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.03491043575429</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="C14" t="n">
-        <v>29.03491043575429</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="D14" t="n">
-        <v>29.03491043575429</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="E14" t="n">
-        <v>29.03491043575429</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="F14" t="n">
-        <v>29.03491043575429</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="G14" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H14" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I14" t="n">
-        <v>49.86523077302945</v>
+        <v>49.8652307730294</v>
       </c>
       <c r="J14" t="n">
-        <v>141.8946578048362</v>
+        <v>141.894657804836</v>
       </c>
       <c r="K14" t="n">
-        <v>288.0679219725719</v>
+        <v>288.0679219725715</v>
       </c>
       <c r="L14" t="n">
-        <v>475.4053179987476</v>
+        <v>475.4053179987473</v>
       </c>
       <c r="M14" t="n">
-        <v>689.0005507143569</v>
+        <v>689.0005507143563</v>
       </c>
       <c r="N14" t="n">
-        <v>906.8017214638057</v>
+        <v>906.8017214638051</v>
       </c>
       <c r="O14" t="n">
-        <v>1110.29821093573</v>
+        <v>1110.298210935729</v>
       </c>
       <c r="P14" t="n">
-        <v>1278.37134400276</v>
+        <v>1278.371344002759</v>
       </c>
       <c r="Q14" t="n">
-        <v>1396.759196036768</v>
+        <v>1396.759196036767</v>
       </c>
       <c r="R14" t="n">
-        <v>1451.745521787715</v>
+        <v>1451.745521787714</v>
       </c>
       <c r="S14" t="n">
-        <v>1451.745521787715</v>
+        <v>1451.745521787714</v>
       </c>
       <c r="T14" t="n">
-        <v>1451.745521787715</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="U14" t="n">
-        <v>1451.745521787715</v>
+        <v>978.9572069442731</v>
       </c>
       <c r="V14" t="n">
-        <v>1451.745521787715</v>
+        <v>621.4677920705226</v>
       </c>
       <c r="W14" t="n">
-        <v>1085.143117295868</v>
+        <v>621.4677920705226</v>
       </c>
       <c r="X14" t="n">
-        <v>718.5407128040204</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="Y14" t="n">
-        <v>351.9383083121731</v>
+        <v>395.6373149276012</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>448.7285364471231</v>
+        <v>226.5206992375651</v>
       </c>
       <c r="C15" t="n">
-        <v>331.2226329646279</v>
+        <v>226.5206992375651</v>
       </c>
       <c r="D15" t="n">
-        <v>227.3826744799129</v>
+        <v>122.6807407528501</v>
       </c>
       <c r="E15" t="n">
         <v>122.6807407528501</v>
       </c>
       <c r="F15" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="G15" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H15" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I15" t="n">
-        <v>39.32059938368414</v>
+        <v>39.3205993836841</v>
       </c>
       <c r="J15" t="n">
-        <v>91.07479552862546</v>
+        <v>91.07479552862539</v>
       </c>
       <c r="K15" t="n">
-        <v>192.2311190452096</v>
+        <v>192.2311190452095</v>
       </c>
       <c r="L15" t="n">
-        <v>335.7756924166483</v>
+        <v>335.7756924166482</v>
       </c>
       <c r="M15" t="n">
-        <v>506.4309300589891</v>
+        <v>506.4309300589888</v>
       </c>
       <c r="N15" t="n">
-        <v>683.9443088400235</v>
+        <v>683.9443088400232</v>
       </c>
       <c r="O15" t="n">
-        <v>842.7236536513709</v>
+        <v>842.7236536513706</v>
       </c>
       <c r="P15" t="n">
-        <v>967.0164528322535</v>
+        <v>967.0164528322531</v>
       </c>
       <c r="Q15" t="n">
-        <v>1041.991028069201</v>
+        <v>1041.9910280692</v>
       </c>
       <c r="R15" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="S15" t="n">
-        <v>1065.975367360917</v>
+        <v>999.1257965607656</v>
       </c>
       <c r="T15" t="n">
-        <v>1065.975367360917</v>
+        <v>860.3868827783656</v>
       </c>
       <c r="U15" t="n">
-        <v>1065.975367360917</v>
+        <v>675.6699547380445</v>
       </c>
       <c r="V15" t="n">
-        <v>937.6542692673058</v>
+        <v>551.9690858244106</v>
       </c>
       <c r="W15" t="n">
-        <v>741.132892100523</v>
+        <v>355.4477086576278</v>
       </c>
       <c r="X15" t="n">
-        <v>577.6555458671859</v>
+        <v>355.4477086576278</v>
       </c>
       <c r="Y15" t="n">
-        <v>577.6555458671859</v>
+        <v>355.4477086576278</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="C16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="D16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="E16" t="n">
-        <v>29.03491043575429</v>
+        <v>164.282874617468</v>
       </c>
       <c r="F16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="G16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="J16" t="n">
-        <v>53.87488472994727</v>
+        <v>53.87488472994723</v>
       </c>
       <c r="K16" t="n">
-        <v>107.5129892737759</v>
+        <v>107.5129892737758</v>
       </c>
       <c r="L16" t="n">
-        <v>181.0109882634347</v>
+        <v>181.0109882634346</v>
       </c>
       <c r="M16" t="n">
-        <v>259.0337940079584</v>
+        <v>259.0337940079582</v>
       </c>
       <c r="N16" t="n">
-        <v>336.4782397811395</v>
+        <v>336.4782397811392</v>
       </c>
       <c r="O16" t="n">
-        <v>404.7098432503367</v>
+        <v>404.7098432503365</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9961970826225</v>
+        <v>459.9961970826221</v>
       </c>
       <c r="Q16" t="n">
-        <v>489.2405888496714</v>
+        <v>489.240588849671</v>
       </c>
       <c r="R16" t="n">
-        <v>471.5774978988004</v>
+        <v>489.240588849671</v>
       </c>
       <c r="S16" t="n">
-        <v>312.8279895137439</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="T16" t="n">
-        <v>72.28008846631579</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="U16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="V16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="W16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="X16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.03491043575429</v>
+        <v>330.4910804646145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>469.4153097299686</v>
+        <v>503.9907906527276</v>
       </c>
       <c r="C17" t="n">
-        <v>102.8129052381214</v>
+        <v>503.9907906527276</v>
       </c>
       <c r="D17" t="n">
-        <v>102.8129052381214</v>
+        <v>503.9907906527276</v>
       </c>
       <c r="E17" t="n">
-        <v>102.8129052381214</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="F17" t="n">
-        <v>102.8129052381214</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="G17" t="n">
-        <v>102.8129052381214</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H17" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I17" t="n">
-        <v>49.86523077302945</v>
+        <v>49.8652307730294</v>
       </c>
       <c r="J17" t="n">
-        <v>141.8946578048362</v>
+        <v>141.894657804836</v>
       </c>
       <c r="K17" t="n">
-        <v>288.0679219725718</v>
+        <v>288.0679219725714</v>
       </c>
       <c r="L17" t="n">
-        <v>475.4053179987476</v>
+        <v>475.4053179987471</v>
       </c>
       <c r="M17" t="n">
-        <v>689.0005507143567</v>
+        <v>689.0005507143562</v>
       </c>
       <c r="N17" t="n">
-        <v>906.8017214638055</v>
+        <v>906.8017214638049</v>
       </c>
       <c r="O17" t="n">
-        <v>1110.29821093573</v>
+        <v>1110.298210935729</v>
       </c>
       <c r="P17" t="n">
-        <v>1278.37134400276</v>
+        <v>1278.371344002759</v>
       </c>
       <c r="Q17" t="n">
-        <v>1396.759196036768</v>
+        <v>1396.759196036767</v>
       </c>
       <c r="R17" t="n">
-        <v>1451.745521787715</v>
+        <v>1451.745521787714</v>
       </c>
       <c r="S17" t="n">
-        <v>1451.745521787715</v>
+        <v>1451.745521787714</v>
       </c>
       <c r="T17" t="n">
-        <v>1451.745521787715</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="U17" t="n">
-        <v>1193.507129095566</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="V17" t="n">
-        <v>836.0177142218158</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="W17" t="n">
-        <v>469.4153097299686</v>
+        <v>870.5931951445746</v>
       </c>
       <c r="X17" t="n">
-        <v>469.4153097299686</v>
+        <v>870.5931951445746</v>
       </c>
       <c r="Y17" t="n">
-        <v>469.4153097299686</v>
+        <v>503.9907906527276</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.6980924771915</v>
+        <v>448.3572037037811</v>
       </c>
       <c r="C18" t="n">
-        <v>110.6980924771915</v>
+        <v>330.8513002212858</v>
       </c>
       <c r="D18" t="n">
-        <v>110.6980924771915</v>
+        <v>227.0113417365709</v>
       </c>
       <c r="E18" t="n">
-        <v>110.6980924771915</v>
+        <v>122.3094080095081</v>
       </c>
       <c r="F18" t="n">
-        <v>110.6980924771915</v>
+        <v>122.3094080095081</v>
       </c>
       <c r="G18" t="n">
-        <v>74.8848553952427</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H18" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I18" t="n">
-        <v>39.32059938368414</v>
+        <v>39.3205993836841</v>
       </c>
       <c r="J18" t="n">
-        <v>91.07479552862546</v>
+        <v>91.07479552862537</v>
       </c>
       <c r="K18" t="n">
-        <v>192.2311190452096</v>
+        <v>192.2311190452094</v>
       </c>
       <c r="L18" t="n">
-        <v>335.7756924166483</v>
+        <v>335.7756924166481</v>
       </c>
       <c r="M18" t="n">
-        <v>506.4309300589891</v>
+        <v>506.4309300589887</v>
       </c>
       <c r="N18" t="n">
-        <v>683.9443088400235</v>
+        <v>683.944308840023</v>
       </c>
       <c r="O18" t="n">
-        <v>842.7236536513709</v>
+        <v>842.7236536513703</v>
       </c>
       <c r="P18" t="n">
-        <v>967.0164528322535</v>
+        <v>967.0164528322529</v>
       </c>
       <c r="Q18" t="n">
-        <v>1041.991028069201</v>
+        <v>1041.9910280692</v>
       </c>
       <c r="R18" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="S18" t="n">
-        <v>999.1257965607663</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="T18" t="n">
-        <v>860.3868827783663</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="U18" t="n">
-        <v>675.6699547380451</v>
+        <v>881.258439320595</v>
       </c>
       <c r="V18" t="n">
-        <v>470.6968158773114</v>
+        <v>676.2853004598612</v>
       </c>
       <c r="W18" t="n">
-        <v>274.1754387105286</v>
+        <v>479.7639232930784</v>
       </c>
       <c r="X18" t="n">
-        <v>110.6980924771915</v>
+        <v>479.7639232930784</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.6980924771915</v>
+        <v>448.3572037037811</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>262.8978205394134</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="C19" t="n">
-        <v>262.8978205394134</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="D19" t="n">
-        <v>99.58104766618408</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="E19" t="n">
-        <v>99.58104766618408</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="F19" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="G19" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H19" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I19" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="J19" t="n">
-        <v>53.87488472994727</v>
+        <v>53.87488472994723</v>
       </c>
       <c r="K19" t="n">
-        <v>107.5129892737759</v>
+        <v>107.5129892737758</v>
       </c>
       <c r="L19" t="n">
-        <v>181.0109882634347</v>
+        <v>181.0109882634345</v>
       </c>
       <c r="M19" t="n">
-        <v>259.0337940079584</v>
+        <v>259.0337940079582</v>
       </c>
       <c r="N19" t="n">
-        <v>336.4782397811395</v>
+        <v>336.4782397811392</v>
       </c>
       <c r="O19" t="n">
-        <v>404.7098432503367</v>
+        <v>404.7098432503364</v>
       </c>
       <c r="P19" t="n">
-        <v>459.9961970826225</v>
+        <v>459.9961970826221</v>
       </c>
       <c r="Q19" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="R19" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="S19" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="T19" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="U19" t="n">
-        <v>489.2405888496714</v>
+        <v>303.8873142632413</v>
       </c>
       <c r="V19" t="n">
-        <v>489.2405888496714</v>
+        <v>303.8873142632413</v>
       </c>
       <c r="W19" t="n">
-        <v>489.2405888496714</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="X19" t="n">
-        <v>489.2405888496714</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="Y19" t="n">
-        <v>262.8978205394134</v>
+        <v>29.03491043575427</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.01736253363</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="C20" t="n">
-        <v>799.4149580417827</v>
+        <v>395.6373149276012</v>
       </c>
       <c r="D20" t="n">
-        <v>799.4149580417827</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="E20" t="n">
-        <v>799.4149580417827</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="F20" t="n">
-        <v>678.5897338157072</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="G20" t="n">
-        <v>311.98732932386</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H20" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I20" t="n">
-        <v>49.86523077302945</v>
+        <v>49.8652307730294</v>
       </c>
       <c r="J20" t="n">
-        <v>141.8946578048362</v>
+        <v>141.894657804836</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0679219725718</v>
+        <v>288.0679219725714</v>
       </c>
       <c r="L20" t="n">
-        <v>475.4053179987476</v>
+        <v>475.405317998747</v>
       </c>
       <c r="M20" t="n">
-        <v>689.0005507143569</v>
+        <v>689.0005507143562</v>
       </c>
       <c r="N20" t="n">
-        <v>906.8017214638057</v>
+        <v>906.8017214638048</v>
       </c>
       <c r="O20" t="n">
-        <v>1110.29821093573</v>
+        <v>1110.298210935729</v>
       </c>
       <c r="P20" t="n">
-        <v>1278.37134400276</v>
+        <v>1278.371344002759</v>
       </c>
       <c r="Q20" t="n">
-        <v>1396.759196036768</v>
+        <v>1396.759196036767</v>
       </c>
       <c r="R20" t="n">
-        <v>1451.745521787715</v>
+        <v>1451.745521787714</v>
       </c>
       <c r="S20" t="n">
-        <v>1380.567284684922</v>
+        <v>1451.745521787714</v>
       </c>
       <c r="T20" t="n">
-        <v>1166.01736253363</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="U20" t="n">
-        <v>1166.01736253363</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="V20" t="n">
-        <v>1166.01736253363</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="W20" t="n">
-        <v>1166.01736253363</v>
+        <v>1237.195599636422</v>
       </c>
       <c r="X20" t="n">
-        <v>1166.01736253363</v>
+        <v>870.5931951445746</v>
       </c>
       <c r="Y20" t="n">
-        <v>1166.01736253363</v>
+        <v>503.9907906527276</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.03491043575429</v>
+        <v>344.0266027200603</v>
       </c>
       <c r="C21" t="n">
-        <v>29.03491043575429</v>
+        <v>226.5206992375651</v>
       </c>
       <c r="D21" t="n">
-        <v>29.03491043575429</v>
+        <v>122.6807407528501</v>
       </c>
       <c r="E21" t="n">
-        <v>29.03491043575429</v>
+        <v>122.6807407528501</v>
       </c>
       <c r="F21" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="G21" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="H21" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I21" t="n">
-        <v>39.32059938368414</v>
+        <v>39.3205993836841</v>
       </c>
       <c r="J21" t="n">
-        <v>91.07479552862546</v>
+        <v>91.07479552862537</v>
       </c>
       <c r="K21" t="n">
-        <v>192.2311190452096</v>
+        <v>192.2311190452094</v>
       </c>
       <c r="L21" t="n">
-        <v>335.7756924166483</v>
+        <v>335.7756924166481</v>
       </c>
       <c r="M21" t="n">
-        <v>506.4309300589891</v>
+        <v>506.4309300589887</v>
       </c>
       <c r="N21" t="n">
-        <v>683.9443088400235</v>
+        <v>683.944308840023</v>
       </c>
       <c r="O21" t="n">
-        <v>842.7236536513709</v>
+        <v>842.7236536513703</v>
       </c>
       <c r="P21" t="n">
-        <v>967.0164528322535</v>
+        <v>967.0164528322529</v>
       </c>
       <c r="Q21" t="n">
-        <v>1041.991028069201</v>
+        <v>1041.9910280692</v>
       </c>
       <c r="R21" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="S21" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="T21" t="n">
-        <v>927.2364535785171</v>
+        <v>1065.975367360916</v>
       </c>
       <c r="U21" t="n">
-        <v>742.5195255381959</v>
+        <v>1014.141016814347</v>
       </c>
       <c r="V21" t="n">
-        <v>537.5463866774621</v>
+        <v>809.1678779536135</v>
       </c>
       <c r="W21" t="n">
-        <v>341.0250095106793</v>
+        <v>612.6465007868306</v>
       </c>
       <c r="X21" t="n">
-        <v>177.5476632773422</v>
+        <v>612.6465007868306</v>
       </c>
       <c r="Y21" t="n">
-        <v>37.85477463063458</v>
+        <v>472.953612140123</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1261.579553075649</v>
+        <v>333.2307998839269</v>
       </c>
       <c r="C22" t="n">
-        <v>1089.606989954565</v>
+        <v>333.2307998839269</v>
       </c>
       <c r="D22" t="n">
-        <v>991.5398433737976</v>
+        <v>333.2307998839269</v>
       </c>
       <c r="E22" t="n">
-        <v>991.5398433737976</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="F22" t="n">
-        <v>991.5398433737976</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="G22" t="n">
-        <v>991.5398433737976</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="H22" t="n">
-        <v>991.5398433737976</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="I22" t="n">
-        <v>991.5398433737976</v>
+        <v>29.03491043575427</v>
       </c>
       <c r="J22" t="n">
-        <v>1016.379817667991</v>
+        <v>53.87488472994723</v>
       </c>
       <c r="K22" t="n">
-        <v>1070.017922211819</v>
+        <v>107.5129892737758</v>
       </c>
       <c r="L22" t="n">
-        <v>1143.515921201478</v>
+        <v>181.0109882634345</v>
       </c>
       <c r="M22" t="n">
-        <v>1221.538726946002</v>
+        <v>259.0337940079582</v>
       </c>
       <c r="N22" t="n">
-        <v>1298.983172719183</v>
+        <v>336.4782397811392</v>
       </c>
       <c r="O22" t="n">
-        <v>1367.21477618838</v>
+        <v>404.7098432503364</v>
       </c>
       <c r="P22" t="n">
-        <v>1422.501130020666</v>
+        <v>459.9961970826221</v>
       </c>
       <c r="Q22" t="n">
-        <v>1451.745521787715</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="R22" t="n">
-        <v>1451.745521787715</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="S22" t="n">
-        <v>1451.745521787715</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.745521787715</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="U22" t="n">
-        <v>1451.745521787715</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="V22" t="n">
-        <v>1451.745521787715</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="W22" t="n">
-        <v>1451.745521787715</v>
+        <v>489.2405888496709</v>
       </c>
       <c r="X22" t="n">
-        <v>1451.745521787715</v>
+        <v>333.2307998839269</v>
       </c>
       <c r="Y22" t="n">
-        <v>1451.745521787715</v>
+        <v>333.2307998839269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.522976534368</v>
+        <v>751.3560310066516</v>
       </c>
       <c r="C23" t="n">
-        <v>898.6222465476677</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="D23" t="n">
-        <v>475.329625732668</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="E23" t="n">
-        <v>475.329625732668</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F23" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H23" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010162</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8602102853079</v>
+        <v>265.860210285308</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M23" t="n">
         <v>1196.576905080624</v>
@@ -6004,7 +6004,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O23" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
         <v>2194.643812107885</v>
@@ -6019,22 +6019,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T23" t="n">
-        <v>2408.879023097566</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U23" t="n">
-        <v>2150.708610871007</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V23" t="n">
-        <v>2150.708610871007</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W23" t="n">
-        <v>2150.708610871007</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X23" t="n">
-        <v>2150.708610871007</v>
+        <v>1171.204395298182</v>
       </c>
       <c r="Y23" t="n">
-        <v>1745.371340825898</v>
+        <v>1171.204395298182</v>
       </c>
     </row>
     <row r="24">
@@ -6050,16 +6050,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D24" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F24" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H24" t="n">
         <v>50.20544392206816</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1679.707041483854</v>
+        <v>551.7029857635279</v>
       </c>
       <c r="C25" t="n">
-        <v>1679.707041483854</v>
+        <v>379.7304226424439</v>
       </c>
       <c r="D25" t="n">
-        <v>1679.707041483854</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="E25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J25" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L25" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M25" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N25" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O25" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P25" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T25" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U25" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V25" t="n">
-        <v>2228.560728711437</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W25" t="n">
-        <v>1953.70832488395</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X25" t="n">
-        <v>1711.144428329755</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="Y25" t="n">
-        <v>1679.707041483854</v>
+        <v>728.6638647350633</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.589270380385</v>
+        <v>1579.365818556485</v>
       </c>
       <c r="C26" t="n">
-        <v>1577.589270380385</v>
+        <v>1152.465088569785</v>
       </c>
       <c r="D26" t="n">
-        <v>1577.589270380385</v>
+        <v>1152.465088569785</v>
       </c>
       <c r="E26" t="n">
-        <v>1151.612330528242</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F26" t="n">
         <v>726.4881487176426</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199517</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010159</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853074</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998219</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230807</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080623</v>
@@ -6247,31 +6247,31 @@
         <v>2194.643812107884</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S26" t="n">
-        <v>2458.457769745855</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T26" t="n">
         <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>1989.457241469476</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V26" t="n">
-        <v>1631.967826595725</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="W26" t="n">
-        <v>1577.589270380385</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="X26" t="n">
-        <v>1577.589270380385</v>
+        <v>1579.365818556485</v>
       </c>
       <c r="Y26" t="n">
-        <v>1577.589270380385</v>
+        <v>1579.365818556485</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C27" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D27" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662158</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145955</v>
       </c>
       <c r="J27" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570807</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L27" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M27" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688304</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O27" t="n">
         <v>1424.874394922369</v>
@@ -6326,10 +6326,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q27" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R27" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S27" t="n">
         <v>1759.362893661493</v>
@@ -6338,19 +6338,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U27" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V27" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W27" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y27" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>464.2618615192989</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="C28" t="n">
-        <v>464.2618615192989</v>
+        <v>276.5632797611515</v>
       </c>
       <c r="D28" t="n">
-        <v>464.2618615192989</v>
+        <v>276.5632797611515</v>
       </c>
       <c r="E28" t="n">
-        <v>298.0536556721524</v>
+        <v>184.80416897444</v>
       </c>
       <c r="F28" t="n">
-        <v>298.0536556721524</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G28" t="n">
-        <v>253.4628459276414</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H28" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I28" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J28" t="n">
         <v>101.4579413382349</v>
@@ -6411,25 +6411,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S28" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T28" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="V28" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="W28" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="X28" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="Y28" t="n">
-        <v>654.4278302313645</v>
+        <v>448.5358428822355</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>676.6896202452675</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="C29" t="n">
-        <v>676.6896202452675</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D29" t="n">
-        <v>676.6896202452675</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E29" t="n">
-        <v>676.6896202452675</v>
+        <v>475.329625732668</v>
       </c>
       <c r="F29" t="n">
-        <v>676.6896202452675</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G29" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I29" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J29" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230815</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N29" t="n">
         <v>1562.984812457614</v>
@@ -6481,34 +6481,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R29" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S29" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V29" t="n">
-        <v>1890.138238822283</v>
+        <v>2147.891266086163</v>
       </c>
       <c r="W29" t="n">
-        <v>1493.74688912263</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="X29" t="n">
-        <v>1082.026890290377</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="Y29" t="n">
-        <v>676.6896202452675</v>
+        <v>1751.49991638651</v>
       </c>
     </row>
     <row r="30">
@@ -6524,22 +6524,22 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H30" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J30" t="n">
         <v>169.6881981570805</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1679.707041483853</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="C31" t="n">
-        <v>1679.707041483853</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="D31" t="n">
-        <v>1679.707041483853</v>
+        <v>516.2348560014422</v>
       </c>
       <c r="E31" t="n">
-        <v>1679.707041483853</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F31" t="n">
-        <v>1679.707041483853</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.707041483853</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H31" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I31" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J31" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K31" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L31" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M31" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N31" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O31" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P31" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q31" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R31" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T31" t="n">
-        <v>2510.272196103407</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U31" t="n">
-        <v>2510.272196103407</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V31" t="n">
-        <v>2228.560728711436</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="W31" t="n">
-        <v>1953.708324883949</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="X31" t="n">
-        <v>1711.144428329754</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="Y31" t="n">
-        <v>1679.707041483853</v>
+        <v>641.8513381055109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1326.37573457591</v>
+        <v>209.5009597769991</v>
       </c>
       <c r="C32" t="n">
-        <v>899.4750045892104</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="D32" t="n">
-        <v>476.1823837742106</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="E32" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="F32" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G32" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H32" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I32" t="n">
         <v>103.1440473010161</v>
@@ -6709,43 +6709,43 @@
         <v>836.741258523081</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N32" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O32" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q32" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R32" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103408</v>
+        <v>2200.287357519295</v>
       </c>
       <c r="V32" t="n">
-        <v>2510.272196103408</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="W32" t="n">
-        <v>2510.272196103408</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X32" t="n">
-        <v>2151.56136891255</v>
+        <v>1034.686594113639</v>
       </c>
       <c r="Y32" t="n">
-        <v>1746.22409886744</v>
+        <v>629.3493240685292</v>
       </c>
     </row>
     <row r="33">
@@ -6761,22 +6761,22 @@
         <v>486.671896462798</v>
       </c>
       <c r="D33" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E33" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F33" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G33" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H33" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J33" t="n">
         <v>169.6881981570805</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>599.0591311496514</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="C34" t="n">
-        <v>599.0591311496514</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="D34" t="n">
-        <v>599.0591311496514</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="E34" t="n">
-        <v>590.5471013329367</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="F34" t="n">
-        <v>418.6853271074971</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G34" t="n">
-        <v>253.4628459276414</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H34" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I34" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J34" t="n">
         <v>101.4579413382349</v>
@@ -6900,10 +6900,10 @@
         <v>599.0591311496514</v>
       </c>
       <c r="X34" t="n">
-        <v>599.0591311496514</v>
+        <v>356.4952345954565</v>
       </c>
       <c r="Y34" t="n">
-        <v>599.0591311496514</v>
+        <v>222.0672181475077</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.106173908768</v>
+        <v>1292.857006340198</v>
       </c>
       <c r="C35" t="n">
-        <v>50.20544392206816</v>
+        <v>1292.857006340198</v>
       </c>
       <c r="D35" t="n">
-        <v>50.20544392206816</v>
+        <v>869.5643855251985</v>
       </c>
       <c r="E35" t="n">
-        <v>50.20544392206816</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F35" t="n">
-        <v>50.20544392206816</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G35" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206816</v>
@@ -6937,10 +6937,10 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L35" t="n">
         <v>836.7412585230813</v>
@@ -6964,25 +6964,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2467.892571651064</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V35" t="n">
-        <v>2110.403156777314</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="W35" t="n">
-        <v>1714.01180707766</v>
+        <v>1704.577005172451</v>
       </c>
       <c r="X35" t="n">
-        <v>1302.291808245408</v>
+        <v>1292.857006340198</v>
       </c>
       <c r="Y35" t="n">
-        <v>896.9545382002981</v>
+        <v>1292.857006340198</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>690.6046298295569</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="C37" t="n">
-        <v>690.6046298295569</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="D37" t="n">
-        <v>527.2878569563276</v>
+        <v>326.4278314257224</v>
       </c>
       <c r="E37" t="n">
-        <v>527.2878569563276</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="F37" t="n">
-        <v>355.426082730888</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="G37" t="n">
-        <v>190.2036015510323</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H37" t="n">
-        <v>55.60487649866042</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I37" t="n">
         <v>50.20544392206816</v>
@@ -7122,25 +7122,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T37" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="V37" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="W37" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="X37" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>900.3987947237678</v>
+        <v>476.1823837742106</v>
       </c>
       <c r="C38" t="n">
-        <v>473.4980647370679</v>
+        <v>476.1823837742106</v>
       </c>
       <c r="D38" t="n">
-        <v>50.20544392206813</v>
+        <v>476.1823837742106</v>
       </c>
       <c r="E38" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
@@ -7189,37 +7189,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O38" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P38" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q38" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R38" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T38" t="n">
-        <v>2324.169970355983</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U38" t="n">
-        <v>2065.999558129424</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V38" t="n">
-        <v>1708.510143255674</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W38" t="n">
-        <v>1312.118793556021</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="X38" t="n">
-        <v>900.3987947237678</v>
+        <v>1220.247827763472</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.3987947237678</v>
+        <v>896.0307480657407</v>
       </c>
     </row>
     <row r="39">
@@ -7244,13 +7244,13 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H39" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J39" t="n">
         <v>169.6881981570805</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.20544392206813</v>
+        <v>385.383991020737</v>
       </c>
       <c r="C40" t="n">
-        <v>50.20544392206813</v>
+        <v>385.383991020737</v>
       </c>
       <c r="D40" t="n">
-        <v>50.20544392206813</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="E40" t="n">
-        <v>50.20544392206813</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="F40" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G40" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H40" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J40" t="n">
         <v>101.4579413382349</v>
@@ -7368,16 +7368,16 @@
         <v>880.7705985416225</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416225</v>
+        <v>627.9478875749319</v>
       </c>
       <c r="W40" t="n">
-        <v>605.9181947141356</v>
+        <v>627.9478875749319</v>
       </c>
       <c r="X40" t="n">
-        <v>363.3542981599406</v>
+        <v>385.383991020737</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.0115298496827</v>
+        <v>385.383991020737</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>875.6709044213706</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="C41" t="n">
-        <v>875.6709044213706</v>
+        <v>1019.505862959193</v>
       </c>
       <c r="D41" t="n">
-        <v>875.6709044213706</v>
+        <v>1019.505862959193</v>
       </c>
       <c r="E41" t="n">
-        <v>875.6709044213706</v>
+        <v>749.5794828305515</v>
       </c>
       <c r="F41" t="n">
-        <v>450.5467226107708</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H41" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
         <v>103.1440473010161</v>
@@ -7417,7 +7417,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080623</v>
@@ -7426,37 +7426,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P41" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q41" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R41" t="n">
-        <v>2510.272196103406</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S41" t="n">
-        <v>2510.272196103406</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2299.442080053586</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U41" t="n">
-        <v>2041.271667827027</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>1683.782252953276</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W41" t="n">
-        <v>1287.390903253623</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X41" t="n">
-        <v>875.6709044213706</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="Y41" t="n">
-        <v>875.6709044213706</v>
+        <v>1446.406592945892</v>
       </c>
     </row>
     <row r="42">
@@ -7472,34 +7472,34 @@
         <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662165</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H42" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83346633145925</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J42" t="n">
-        <v>169.6881981570804</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K42" t="n">
-        <v>342.8010428266098</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L42" t="n">
         <v>583.100038874436</v>
       </c>
       <c r="M42" t="n">
-        <v>866.6631241688301</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N42" t="n">
         <v>1160.072685361481</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.20544392206813</v>
+        <v>654.4278302313645</v>
       </c>
       <c r="C43" t="n">
-        <v>50.20544392206813</v>
+        <v>553.4979051745099</v>
       </c>
       <c r="D43" t="n">
-        <v>50.20544392206813</v>
+        <v>553.4979051745099</v>
       </c>
       <c r="E43" t="n">
-        <v>50.20544392206813</v>
+        <v>387.2896993273635</v>
       </c>
       <c r="F43" t="n">
-        <v>50.20544392206813</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J43" t="n">
         <v>101.4579413382349</v>
@@ -7593,28 +7593,28 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R43" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1396173237059</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T43" t="n">
-        <v>489.2203568875943</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U43" t="n">
-        <v>209.0923350347666</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="V43" t="n">
-        <v>50.20544392206813</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="W43" t="n">
-        <v>50.20544392206813</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="X43" t="n">
-        <v>50.20544392206813</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.20544392206813</v>
+        <v>654.4278302313645</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>713.9929523563999</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="C44" t="n">
-        <v>713.9929523563999</v>
+        <v>1562.556511482776</v>
       </c>
       <c r="D44" t="n">
-        <v>713.9929523563999</v>
+        <v>1562.556511482776</v>
       </c>
       <c r="E44" t="n">
-        <v>713.9929523563999</v>
+        <v>1136.579571630633</v>
       </c>
       <c r="F44" t="n">
-        <v>288.8687705458001</v>
+        <v>711.4553898200336</v>
       </c>
       <c r="G44" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853076</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998221</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230808</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M44" t="n">
         <v>1196.576905080623</v>
       </c>
       <c r="N44" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S44" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T44" t="n">
-        <v>2299.442080053586</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U44" t="n">
-        <v>2299.442080053586</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V44" t="n">
-        <v>1941.952665179836</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="W44" t="n">
-        <v>1545.561315480183</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="X44" t="n">
-        <v>1133.84131664793</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="Y44" t="n">
-        <v>1133.84131664793</v>
+        <v>1989.457241469476</v>
       </c>
     </row>
     <row r="45">
@@ -7718,25 +7718,25 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83346633145925</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J45" t="n">
         <v>169.6881981570805</v>
       </c>
       <c r="K45" t="n">
-        <v>342.8010428266098</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L45" t="n">
-        <v>583.1000388744359</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688299</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7745,7 +7745,7 @@
         <v>1424.874394922369</v>
       </c>
       <c r="P45" t="n">
-        <v>1634.259488911544</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q45" t="n">
         <v>1766.116009761532</v>
@@ -7754,10 +7754,10 @@
         <v>1817.767364655853</v>
       </c>
       <c r="S45" t="n">
-        <v>1759.362893661492</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.45657650755</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U45" t="n">
         <v>1437.769560272917</v>
@@ -7766,7 +7766,7 @@
         <v>1232.796421412183</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.2750442454</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X45" t="n">
         <v>872.7976980120636</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.7163628393932</v>
+        <v>213.5222167952975</v>
       </c>
       <c r="C46" t="n">
-        <v>372.7163628393932</v>
+        <v>213.5222167952975</v>
       </c>
       <c r="D46" t="n">
-        <v>372.7163628393932</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E46" t="n">
-        <v>206.5081569922468</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F46" t="n">
-        <v>206.5081569922468</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G46" t="n">
-        <v>206.5081569922468</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H46" t="n">
-        <v>71.90943193987493</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7812,46 +7812,46 @@
         <v>198.4999349779649</v>
       </c>
       <c r="L46" t="n">
-        <v>327.5399685743819</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1240622438373</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N46" t="n">
-        <v>598.7373394060096</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O46" t="n">
-        <v>719.7736117064334</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P46" t="n">
-        <v>820.2434820122614</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q46" t="n">
-        <v>880.7705985416223</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R46" t="n">
-        <v>880.7705985416223</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S46" t="n">
-        <v>880.7705985416223</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T46" t="n">
-        <v>880.7705985416223</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U46" t="n">
-        <v>880.7705985416223</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V46" t="n">
-        <v>599.0591311496512</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W46" t="n">
-        <v>599.0591311496512</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X46" t="n">
-        <v>599.0591311496512</v>
+        <v>486.0999681808684</v>
       </c>
       <c r="Y46" t="n">
-        <v>372.7163628393932</v>
+        <v>259.7571998706104</v>
       </c>
     </row>
   </sheetData>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.558192006706953</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>15.54097987816582</v>
       </c>
       <c r="D2" t="n">
-        <v>10.96800596494192</v>
+        <v>10.96800596494193</v>
       </c>
       <c r="E2" t="n">
-        <v>13.62548181171324</v>
+        <v>13.62548181171325</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>12.78125135058598</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03641654712531522</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4756394881378387</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.413415416532747</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8413873365495768</v>
+        <v>9.331279130072719</v>
       </c>
       <c r="E5" t="n">
-        <v>11.98875497684404</v>
+        <v>3.498863183320896</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>2.654632722193629</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>330.2626347783329</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23275,7 +23275,7 @@
         <v>398.8537774823832</v>
       </c>
       <c r="H11" t="n">
-        <v>280.1228946992246</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.46645473176487</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.4044229297792</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6560087652268</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49105575572787</v>
+        <v>29.49105575572815</v>
       </c>
       <c r="X11" t="n">
-        <v>44.66641839700151</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.58767372508822</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.34175259801627</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.39144550989351</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.18107509214927</v>
+        <v>66.18107509214929</v>
       </c>
       <c r="T12" t="n">
-        <v>137.3515246445759</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8697587599179</v>
+        <v>83.97770646099396</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>148.991270755475</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>94.41527683692615</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.947615862892</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.6078067650159</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.32031935561109</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48646004136224</v>
+        <v>17.48646004136226</v>
       </c>
       <c r="S13" t="n">
         <v>157.1620133012059</v>
       </c>
       <c r="T13" t="n">
-        <v>238.1424220369538</v>
+        <v>61.43315312522768</v>
       </c>
       <c r="U13" t="n">
         <v>277.3473248794723</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.97551675096008</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23509,7 +23509,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.8537774823832</v>
+        <v>35.91739703545483</v>
       </c>
       <c r="H14" t="n">
         <v>280.1228946992246</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.46645473176487</v>
+        <v>70.46645473176488</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4044229297792</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6560087652268</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49105575572787</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>44.66641839700151</v>
+        <v>184.0306264724381</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.34751689772986</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.18107509214927</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>137.3515246445759</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8697587599179</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>75.88552035945129</v>
+        <v>80.45954724762892</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
         <v>138.2959597602405</v>
@@ -23661,10 +23661,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>36.24767194328859</v>
       </c>
       <c r="G16" t="n">
         <v>163.947615862892</v>
@@ -23673,7 +23673,7 @@
         <v>136.6078067650159</v>
       </c>
       <c r="I16" t="n">
-        <v>79.32031935561108</v>
+        <v>79.32031935561109</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17.48646004136226</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>238.1424220369538</v>
       </c>
       <c r="U16" t="n">
-        <v>234.5345986292164</v>
+        <v>277.3473248794723</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>59.69534223990416</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>314.4472294857459</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.8537774823832</v>
+        <v>35.91739703545483</v>
       </c>
       <c r="H17" t="n">
-        <v>207.0826798448811</v>
+        <v>280.1228946992246</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.46645473176487</v>
+        <v>70.46645473176488</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4044229297792</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6560087652268</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49105575572787</v>
+        <v>29.49105575572815</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>38.34751689773015</v>
       </c>
     </row>
     <row r="18">
@@ -23813,22 +23813,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>56.88664788688694</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45.39144550989351</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>66.18107509214929</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>137.3515246445759</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>107.2033073668362</v>
       </c>
     </row>
     <row r="19">
@@ -23895,13 +23895,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>100.3024806250597</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.947615862892</v>
@@ -23910,7 +23910,7 @@
         <v>136.6078067650159</v>
       </c>
       <c r="I19" t="n">
-        <v>79.32031935561108</v>
+        <v>79.3203193556111</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.48646004136225</v>
+        <v>17.48646004136226</v>
       </c>
       <c r="S19" t="n">
-        <v>157.1620133012059</v>
+        <v>157.162013301206</v>
       </c>
       <c r="T19" t="n">
         <v>238.1424220369538</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3473248794723</v>
+        <v>93.84758303890692</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>308.3799396807395</v>
       </c>
       <c r="C20" t="n">
-        <v>59.69534223990416</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>56.12331415992128</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>301.255968008679</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>35.91739703545456</v>
+        <v>398.8537774823832</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>280.1228946992246</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.46645473176488</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>44.66641839700179</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>38.34751689773015</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>118.9060737729306</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>92.34175259801627</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>66.18107509214927</v>
+        <v>66.18107509214929</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.3515246445759</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>131.5537517188147</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>64.59713002953718</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24144,10 +24144,10 @@
         <v>163.947615862892</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6078067650159</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>79.32031935561108</v>
+        <v>79.3203193556111</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.48646004136225</v>
+        <v>17.48646004136226</v>
       </c>
       <c r="S22" t="n">
-        <v>157.1620133012059</v>
+        <v>157.162013301206</v>
       </c>
       <c r="T22" t="n">
         <v>238.1424220369538</v>
@@ -24192,7 +24192,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>85.68856651256635</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>159.6388557075162</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>135.1526231726965</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>13.07303884312495</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24414,7 +24414,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.5300678317505</v>
@@ -24423,16 +24423,16 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9563276497133</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>338.5926655494697</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>1.612290160070017</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>73.70460410983058</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>119.4253547209912</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S28" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24669,7 +24669,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.30054318765129</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>46.45368210191839</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>37.32328786146897</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>67.97209018366931</v>
@@ -24891,22 +24891,22 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9563276497133</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>264.9291619904512</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>52.47907992498102</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>156.1192142701274</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>90.99560434368607</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>280.0716960141407</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
-        <v>213.632879896473</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>92.31078814557476</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.62665193284298</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>24.48061139937268</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>80.3089884439043</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.3262839566066</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.5702563680571</v>
@@ -25608,16 +25608,16 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>28.59986886102772</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>154.4900541262662</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.674653318898436</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,19 +25788,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>70.3322116835871</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>133.2527378018481</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>121.59633051648</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -25854,7 +25854,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>161.7358258632194</v>
+        <v>14.88243130863293</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.29628209397737</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>142.4916757803852</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26040,10 +26040,10 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I46" t="n">
-        <v>46.48514204604058</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5190049372437571</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.5300678317505</v>
@@ -26082,13 +26082,13 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>248125.0345763729</v>
+        <v>248125.0345763727</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>248125.0345763731</v>
+        <v>248125.0345763728</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>392329.9443010454</v>
+        <v>392329.9443010453</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>392329.9443010453</v>
+        <v>392329.9443010454</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>392329.9443010453</v>
+        <v>392329.9443010454</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>392329.9443010453</v>
+        <v>392329.9443010454</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345766.4791572549</v>
+        <v>345766.4791572547</v>
       </c>
       <c r="C2" t="n">
-        <v>347645.1568754751</v>
+        <v>347645.156875475</v>
       </c>
       <c r="D2" t="n">
         <v>348625.9030879979</v>
       </c>
       <c r="E2" t="n">
-        <v>129456.5397789773</v>
+        <v>129456.5397789772</v>
       </c>
       <c r="F2" t="n">
-        <v>129456.5397789772</v>
+        <v>129456.5397789771</v>
       </c>
       <c r="G2" t="n">
-        <v>129456.5397789772</v>
+        <v>129456.5397789771</v>
       </c>
       <c r="H2" t="n">
-        <v>129456.5397789772</v>
+        <v>129456.5397789771</v>
       </c>
       <c r="I2" t="n">
         <v>204693.8839831541</v>
@@ -26340,22 +26340,22 @@
         <v>204693.883983154</v>
       </c>
       <c r="K2" t="n">
+        <v>204693.8839831541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>204693.8839831541</v>
+      </c>
+      <c r="M2" t="n">
         <v>204693.883983154</v>
-      </c>
-      <c r="L2" t="n">
-        <v>204693.883983154</v>
-      </c>
-      <c r="M2" t="n">
-        <v>204693.8839831541</v>
       </c>
       <c r="N2" t="n">
         <v>204693.8839831541</v>
       </c>
       <c r="O2" t="n">
-        <v>204693.883983154</v>
+        <v>204693.8839831541</v>
       </c>
       <c r="P2" t="n">
-        <v>204693.8839831539</v>
+        <v>204693.8839831541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64854.86355592438</v>
+        <v>64854.86355592435</v>
       </c>
       <c r="C3" t="n">
-        <v>14999.31942433284</v>
+        <v>14999.31942433286</v>
       </c>
       <c r="D3" t="n">
         <v>6335.47344595727</v>
       </c>
       <c r="E3" t="n">
-        <v>322943.1393927428</v>
+        <v>322943.1393927425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>227893.6263494715</v>
+        <v>227893.6263494717</v>
       </c>
       <c r="J3" t="n">
-        <v>2117.141783023327</v>
+        <v>2117.141783023297</v>
       </c>
       <c r="K3" t="n">
-        <v>2606.267583152021</v>
+        <v>2606.267583152112</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157170032</v>
+        <v>1339.207157169917</v>
       </c>
       <c r="M3" t="n">
-        <v>84586.48324465074</v>
+        <v>84586.48324465072</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>304163.9298266678</v>
       </c>
       <c r="D4" t="n">
-        <v>303089.7348566834</v>
+        <v>303089.7348566833</v>
       </c>
       <c r="E4" t="n">
-        <v>254.9378429078439</v>
+        <v>254.9378429078437</v>
       </c>
       <c r="F4" t="n">
-        <v>254.9378429078438</v>
+        <v>254.9378429078437</v>
       </c>
       <c r="G4" t="n">
-        <v>254.9378429078438</v>
+        <v>254.9378429078437</v>
       </c>
       <c r="H4" t="n">
-        <v>254.9378429078438</v>
+        <v>254.9378429078436</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
+        <v>440.4537918539641</v>
+      </c>
+      <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
-      <c r="O4" t="n">
-        <v>440.453791853964</v>
-      </c>
       <c r="P4" t="n">
-        <v>440.453791853964</v>
+        <v>440.4537918539642</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36863.06036917747</v>
       </c>
       <c r="E5" t="n">
-        <v>29885.56426852864</v>
+        <v>29885.56426852861</v>
       </c>
       <c r="F5" t="n">
-        <v>29885.56426852864</v>
+        <v>29885.56426852861</v>
       </c>
       <c r="G5" t="n">
-        <v>29885.56426852864</v>
+        <v>29885.56426852861</v>
       </c>
       <c r="H5" t="n">
-        <v>29885.56426852864</v>
+        <v>29885.56426852861</v>
       </c>
       <c r="I5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="J5" t="n">
+        <v>50537.10295659396</v>
+      </c>
+      <c r="K5" t="n">
         <v>50537.10295659397</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>50537.10295659395</v>
-      </c>
-      <c r="L5" t="n">
-        <v>50537.10295659397</v>
       </c>
       <c r="M5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="O5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="P5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61544.01972819993</v>
+        <v>-61559.43273507273</v>
       </c>
       <c r="C6" t="n">
-        <v>-7940.005506180445</v>
+        <v>-7947.590689227382</v>
       </c>
       <c r="D6" t="n">
-        <v>2337.634416179804</v>
+        <v>2334.135675685221</v>
       </c>
       <c r="E6" t="n">
-        <v>-223627.1017252019</v>
+        <v>-224543.8061461506</v>
       </c>
       <c r="F6" t="n">
-        <v>99316.03766754075</v>
+        <v>98399.33324659182</v>
       </c>
       <c r="G6" t="n">
-        <v>99316.03766754075</v>
+        <v>98399.33324659184</v>
       </c>
       <c r="H6" t="n">
-        <v>99316.03766754073</v>
+        <v>98399.33324659184</v>
       </c>
       <c r="I6" t="n">
-        <v>-74177.29911476534</v>
+        <v>-74780.51460153039</v>
       </c>
       <c r="J6" t="n">
-        <v>151599.1854516828</v>
+        <v>150995.969964918</v>
       </c>
       <c r="K6" t="n">
-        <v>151110.059651554</v>
+        <v>150506.8441647892</v>
       </c>
       <c r="L6" t="n">
-        <v>152377.120077536</v>
+        <v>151773.9045907714</v>
       </c>
       <c r="M6" t="n">
-        <v>69129.84399005542</v>
+        <v>68526.62850329059</v>
       </c>
       <c r="N6" t="n">
-        <v>153716.3272347061</v>
+        <v>153113.1117479414</v>
       </c>
       <c r="O6" t="n">
-        <v>153716.3272347061</v>
+        <v>153113.1117479414</v>
       </c>
       <c r="P6" t="n">
-        <v>153716.327234706</v>
+        <v>153113.1117479414</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.48974078097982</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="C3" t="n">
         <v>77.36880956975664</v>
@@ -26746,16 +26746,16 @@
         <v>82.84723950768694</v>
       </c>
       <c r="E3" t="n">
-        <v>358.6712081355676</v>
+        <v>358.6712081355674</v>
       </c>
       <c r="F3" t="n">
-        <v>358.6712081355676</v>
+        <v>358.6712081355674</v>
       </c>
       <c r="G3" t="n">
-        <v>358.6712081355676</v>
+        <v>358.6712081355673</v>
       </c>
       <c r="H3" t="n">
-        <v>358.6712081355676</v>
+        <v>358.6712081355673</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26779,7 +26779,7 @@
         <v>567.9342007257877</v>
       </c>
       <c r="P3" t="n">
-        <v>567.9342007257876</v>
+        <v>567.9342007257877</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="C4" t="n">
         <v>18.21830727030011</v>
@@ -26798,40 +26798,40 @@
         <v>23.50971295904437</v>
       </c>
       <c r="E4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="F4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="G4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="H4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469284</v>
       </c>
       <c r="I4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="J4" t="n">
+        <v>627.5680490258518</v>
+      </c>
+      <c r="K4" t="n">
         <v>627.5680490258519</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>627.5680490258517</v>
-      </c>
-      <c r="L4" t="n">
-        <v>627.5680490258519</v>
       </c>
       <c r="M4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="O4" t="n">
-        <v>627.5680490258516</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="P4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.48974078097982</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="C3" t="n">
-        <v>12.87906878877682</v>
+        <v>12.87906878877683</v>
       </c>
       <c r="D3" t="n">
         <v>5.478429937930301</v>
       </c>
       <c r="E3" t="n">
-        <v>275.8239686278807</v>
+        <v>275.8239686278804</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>209.2629925902202</v>
+        <v>209.2629925902204</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="C4" t="n">
-        <v>10.12661862839234</v>
+        <v>10.12661862839235</v>
       </c>
       <c r="D4" t="n">
         <v>5.291405688744263</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4266674878843</v>
+        <v>339.4266674878841</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>264.6316685789232</v>
+        <v>264.6316685789235</v>
       </c>
       <c r="J4" t="n">
-        <v>8.091688641907808</v>
+        <v>8.091688641907695</v>
       </c>
       <c r="K4" t="n">
-        <v>10.12661862839211</v>
+        <v>10.12661862839247</v>
       </c>
       <c r="L4" t="n">
-        <v>5.29140568874449</v>
+        <v>5.291405688744035</v>
       </c>
       <c r="M4" t="n">
         <v>339.4266674878843</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="K4" t="n">
-        <v>10.12661862839234</v>
+        <v>10.12661862839235</v>
       </c>
       <c r="L4" t="n">
         <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>339.4266674878843</v>
+        <v>339.4266674878841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27402,10 +27402,10 @@
         <v>24.55296493005908</v>
       </c>
       <c r="J2" t="n">
-        <v>7.415995117306377</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K2" t="n">
-        <v>2.786362146091506</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27420,10 +27420,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2941343268911041</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.128025379424038</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R2" t="n">
         <v>18.74720796782874</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.06049703097857</v>
+        <v>12.38769861924386</v>
       </c>
       <c r="S3" t="n">
         <v>77.93445730202359</v>
@@ -27520,13 +27520,13 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>191.8833649833802</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>153.7508841290959</v>
+        <v>153.750884129096</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.2042711183327</v>
+        <v>130.2042711183328</v>
       </c>
     </row>
     <row r="4">
@@ -27560,25 +27560,25 @@
         <v>95.27363565084021</v>
       </c>
       <c r="J4" t="n">
-        <v>12.41484263875957</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K4" t="n">
-        <v>7.453525154664099</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L4" t="n">
-        <v>4.629166113207059</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M4" t="n">
-        <v>4.345987427773775</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N4" t="n">
-        <v>2.952904146645739</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O4" t="n">
-        <v>6.061704061331426</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P4" t="n">
-        <v>8.315693914541319</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q4" t="n">
         <v>14.881611906857</v>
@@ -27712,7 +27712,7 @@
         <v>92.94681813455406</v>
       </c>
       <c r="H6" t="n">
-        <v>47.14601099623249</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>139.7903633642173</v>
       </c>
       <c r="U6" t="n">
-        <v>164.691258432811</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
-        <v>184.7051002018263</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>190.4670696206812</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>143.6242655007036</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>120.0776524899404</v>
       </c>
     </row>
     <row r="7">
@@ -27806,7 +27806,7 @@
         <v>1.176308884163515</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7054336060544522</v>
+        <v>0.1163097641238598</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>271.5147559472815</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.1280263668177</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
         <v>116.3308444476703</v>
@@ -27949,7 +27949,7 @@
         <v>92.93503434185737</v>
       </c>
       <c r="H9" t="n">
-        <v>51.12129814120099</v>
+        <v>27.61158518215661</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>139.7428664103214</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9087904535916</v>
+        <v>165.112777336932</v>
       </c>
       <c r="V9" t="n">
         <v>179.413694513082</v>
@@ -28000,7 +28000,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>120.4999466435809</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -28028,7 +28028,7 @@
         <v>164.4450033473029</v>
       </c>
       <c r="H10" t="n">
-        <v>137.8462006436736</v>
+        <v>141.0300336718695</v>
       </c>
       <c r="I10" t="n">
         <v>94.27811752316894</v>
@@ -28037,7 +28037,7 @@
         <v>10.07441202240545</v>
       </c>
       <c r="K10" t="n">
-        <v>3.60747870011792</v>
+        <v>1.806294156157647</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28049,7 +28049,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.382648484235652</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>4.311953536506707</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2592552393205217</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H2" t="n">
         <v>2.655097719691293</v>
       </c>
       <c r="I2" t="n">
-        <v>9.994937613904421</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J2" t="n">
-        <v>22.00396436828015</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K2" t="n">
         <v>32.97823864871783</v>
       </c>
       <c r="L2" t="n">
-        <v>40.91242117907326</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M2" t="n">
-        <v>45.52295154133959</v>
+        <v>45.52295154133957</v>
       </c>
       <c r="N2" t="n">
-        <v>45.3713114763538</v>
+        <v>45.37131147635378</v>
       </c>
       <c r="O2" t="n">
-        <v>43.68159120406558</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P2" t="n">
-        <v>37.2812274833402</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q2" t="n">
         <v>27.996649225174</v>
       </c>
       <c r="R2" t="n">
-        <v>16.28544192696774</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S2" t="n">
-        <v>5.907778766016394</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T2" t="n">
         <v>1.134889810125584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02074041914564173</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1387137820572019</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H3" t="n">
         <v>1.339683105657713</v>
       </c>
       <c r="I3" t="n">
-        <v>4.775891180478223</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J3" t="n">
         <v>13.10541043550081</v>
@@ -31135,34 +31135,34 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>30.11853412606044</v>
+        <v>25.56243121102539</v>
       </c>
       <c r="M3" t="n">
-        <v>31.18846915423575</v>
+        <v>31.18846915423574</v>
       </c>
       <c r="N3" t="n">
-        <v>29.43471685544944</v>
+        <v>29.43471685544942</v>
       </c>
       <c r="O3" t="n">
-        <v>26.70747544909496</v>
+        <v>31.26357836412998</v>
       </c>
       <c r="P3" t="n">
         <v>26.48824843511603</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.70669260084563</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R3" t="n">
-        <v>8.612422363165573</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S3" t="n">
-        <v>2.576547662334428</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5591138846954757</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009125906714289601</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1162929751788161</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H4" t="n">
-        <v>1.033950270226202</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I4" t="n">
-        <v>3.497246926286578</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J4" t="n">
-        <v>8.221913345142294</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5111292980479</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L4" t="n">
         <v>17.28959378249416</v>
@@ -31223,25 +31223,25 @@
         <v>17.79599682895465</v>
       </c>
       <c r="O4" t="n">
-        <v>16.43748343709303</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P4" t="n">
-        <v>14.06510674344517</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.737950857927952</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R4" t="n">
-        <v>5.228955047585673</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S4" t="n">
         <v>2.026669394707184</v>
       </c>
       <c r="T4" t="n">
-        <v>0.496888166673123</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006343253191571792</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31378,10 +31378,10 @@
         <v>41.31508778262809</v>
       </c>
       <c r="N6" t="n">
-        <v>30.74023446979461</v>
+        <v>39.56133548384177</v>
       </c>
       <c r="O6" t="n">
-        <v>39.59458313896781</v>
+        <v>30.77348212492065</v>
       </c>
       <c r="P6" t="n">
         <v>31.77814368913269</v>
@@ -31606,7 +31606,7 @@
         <v>16.83596590787816</v>
       </c>
       <c r="K9" t="n">
-        <v>28.77534732975953</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>38.69200558328342</v>
@@ -31615,7 +31615,7 @@
         <v>45.15174553168937</v>
       </c>
       <c r="N9" t="n">
-        <v>38.34014775380277</v>
+        <v>44.71626125022897</v>
       </c>
       <c r="O9" t="n">
         <v>42.3982471846556</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.441894304062582</v>
+        <v>1.441894304062581</v>
       </c>
       <c r="H11" t="n">
-        <v>14.76680004148093</v>
+        <v>14.76680004148091</v>
       </c>
       <c r="I11" t="n">
-        <v>55.58863015737276</v>
+        <v>55.58863015737272</v>
       </c>
       <c r="J11" t="n">
-        <v>122.3789766894317</v>
+        <v>122.3789766894316</v>
       </c>
       <c r="K11" t="n">
-        <v>183.4143625804008</v>
+        <v>183.4143625804007</v>
       </c>
       <c r="L11" t="n">
-        <v>227.5417353883562</v>
+        <v>227.541735388356</v>
       </c>
       <c r="M11" t="n">
-        <v>253.1840232182291</v>
+        <v>253.1840232182289</v>
       </c>
       <c r="N11" t="n">
-        <v>257.2808054096469</v>
+        <v>257.2808054096467</v>
       </c>
       <c r="O11" t="n">
-        <v>242.9429689236246</v>
+        <v>242.9429689236244</v>
       </c>
       <c r="P11" t="n">
-        <v>207.3462032920796</v>
+        <v>207.3462032920794</v>
       </c>
       <c r="Q11" t="n">
-        <v>155.7083635278383</v>
+        <v>155.7083635278382</v>
       </c>
       <c r="R11" t="n">
-        <v>90.57439307757126</v>
+        <v>90.5743930775712</v>
       </c>
       <c r="S11" t="n">
-        <v>32.85716645382612</v>
+        <v>32.8571664538261</v>
       </c>
       <c r="T11" t="n">
-        <v>6.311892316033958</v>
+        <v>6.311892316033953</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1153515443250066</v>
+        <v>0.1153515443250065</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7714814665557492</v>
+        <v>0.7714814665557488</v>
       </c>
       <c r="H12" t="n">
-        <v>7.450886795420001</v>
+        <v>7.450886795419995</v>
       </c>
       <c r="I12" t="n">
-        <v>26.56197154588874</v>
+        <v>26.56197154588872</v>
       </c>
       <c r="J12" t="n">
-        <v>72.88808013630437</v>
+        <v>72.88808013630432</v>
       </c>
       <c r="K12" t="n">
-        <v>124.5773383955396</v>
+        <v>124.5773383955395</v>
       </c>
       <c r="L12" t="n">
-        <v>167.5096052712385</v>
+        <v>167.5096052712383</v>
       </c>
       <c r="M12" t="n">
-        <v>195.4758084338843</v>
+        <v>195.4758084338842</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6494714267078</v>
+        <v>200.6494714267077</v>
       </c>
       <c r="O12" t="n">
-        <v>183.5550662993409</v>
+        <v>183.5550662993408</v>
       </c>
       <c r="P12" t="n">
-        <v>147.3191232057202</v>
+        <v>147.3191232057201</v>
       </c>
       <c r="Q12" t="n">
-        <v>98.47893246771284</v>
+        <v>98.47893246771278</v>
       </c>
       <c r="R12" t="n">
-        <v>47.89952473931223</v>
+        <v>47.89952473931221</v>
       </c>
       <c r="S12" t="n">
-        <v>14.32992987220875</v>
+        <v>14.32992987220874</v>
       </c>
       <c r="T12" t="n">
-        <v>3.109611700722514</v>
+        <v>3.109611700722512</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05075535964182563</v>
+        <v>0.05075535964182559</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6467841458182366</v>
+        <v>0.6467841458182362</v>
       </c>
       <c r="H13" t="n">
-        <v>5.750499041911235</v>
+        <v>5.750499041911231</v>
       </c>
       <c r="I13" t="n">
-        <v>19.4505632215157</v>
+        <v>19.45056322151569</v>
       </c>
       <c r="J13" t="n">
-        <v>45.72763910934933</v>
+        <v>45.7276391093493</v>
       </c>
       <c r="K13" t="n">
-        <v>75.14455803233693</v>
+        <v>75.14455803233687</v>
       </c>
       <c r="L13" t="n">
-        <v>96.15916291555857</v>
+        <v>96.15916291555851</v>
       </c>
       <c r="M13" t="n">
-        <v>101.3863547849441</v>
+        <v>101.386354784944</v>
       </c>
       <c r="N13" t="n">
-        <v>98.9756138778035</v>
+        <v>98.97561387780343</v>
       </c>
       <c r="O13" t="n">
-        <v>91.41999908347223</v>
+        <v>91.41999908347218</v>
       </c>
       <c r="P13" t="n">
-        <v>78.22560250878014</v>
+        <v>78.2256025087801</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.1593524284707</v>
+        <v>54.15935242847068</v>
       </c>
       <c r="R13" t="n">
-        <v>29.08176713833634</v>
+        <v>29.08176713833632</v>
       </c>
       <c r="S13" t="n">
-        <v>11.27168370485054</v>
+        <v>11.27168370485053</v>
       </c>
       <c r="T13" t="n">
-        <v>2.763532259405192</v>
+        <v>2.76353225940519</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03527913522644931</v>
+        <v>0.03527913522644929</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.441894304062582</v>
+        <v>1.441894304062581</v>
       </c>
       <c r="H14" t="n">
-        <v>14.76680004148092</v>
+        <v>14.76680004148091</v>
       </c>
       <c r="I14" t="n">
-        <v>55.58863015737275</v>
+        <v>55.58863015737272</v>
       </c>
       <c r="J14" t="n">
-        <v>122.3789766894317</v>
+        <v>122.3789766894316</v>
       </c>
       <c r="K14" t="n">
-        <v>183.4143625804008</v>
+        <v>183.4143625804007</v>
       </c>
       <c r="L14" t="n">
-        <v>227.5417353883561</v>
+        <v>227.541735388356</v>
       </c>
       <c r="M14" t="n">
-        <v>253.184023218229</v>
+        <v>253.1840232182289</v>
       </c>
       <c r="N14" t="n">
-        <v>257.2808054096469</v>
+        <v>257.2808054096467</v>
       </c>
       <c r="O14" t="n">
-        <v>242.9429689236246</v>
+        <v>242.9429689236244</v>
       </c>
       <c r="P14" t="n">
-        <v>207.3462032920795</v>
+        <v>207.3462032920794</v>
       </c>
       <c r="Q14" t="n">
-        <v>155.7083635278383</v>
+        <v>155.7083635278382</v>
       </c>
       <c r="R14" t="n">
-        <v>90.57439307757124</v>
+        <v>90.5743930775712</v>
       </c>
       <c r="S14" t="n">
-        <v>32.85716645382612</v>
+        <v>32.8571664538261</v>
       </c>
       <c r="T14" t="n">
-        <v>6.311892316033956</v>
+        <v>6.311892316033953</v>
       </c>
       <c r="U14" t="n">
         <v>0.1153515443250065</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7714814665557491</v>
+        <v>0.7714814665557488</v>
       </c>
       <c r="H15" t="n">
-        <v>7.450886795419999</v>
+        <v>7.450886795419995</v>
       </c>
       <c r="I15" t="n">
-        <v>26.56197154588873</v>
+        <v>26.56197154588872</v>
       </c>
       <c r="J15" t="n">
-        <v>72.88808013630435</v>
+        <v>72.88808013630432</v>
       </c>
       <c r="K15" t="n">
         <v>124.5773383955395</v>
       </c>
       <c r="L15" t="n">
-        <v>167.5096052712384</v>
+        <v>167.5096052712383</v>
       </c>
       <c r="M15" t="n">
-        <v>195.4758084338843</v>
+        <v>195.4758084338842</v>
       </c>
       <c r="N15" t="n">
         <v>200.6494714267077</v>
       </c>
       <c r="O15" t="n">
-        <v>183.5550662993409</v>
+        <v>183.5550662993408</v>
       </c>
       <c r="P15" t="n">
-        <v>147.3191232057202</v>
+        <v>147.3191232057201</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.47893246771282</v>
+        <v>98.47893246771278</v>
       </c>
       <c r="R15" t="n">
-        <v>47.89952473931223</v>
+        <v>47.89952473931221</v>
       </c>
       <c r="S15" t="n">
-        <v>14.32992987220875</v>
+        <v>14.32992987220874</v>
       </c>
       <c r="T15" t="n">
-        <v>3.109611700722514</v>
+        <v>3.109611700722512</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05075535964182562</v>
+        <v>0.05075535964182559</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6467841458182365</v>
+        <v>0.6467841458182362</v>
       </c>
       <c r="H16" t="n">
-        <v>5.750499041911234</v>
+        <v>5.750499041911231</v>
       </c>
       <c r="I16" t="n">
-        <v>19.4505632215157</v>
+        <v>19.45056322151569</v>
       </c>
       <c r="J16" t="n">
-        <v>45.72763910934932</v>
+        <v>45.7276391093493</v>
       </c>
       <c r="K16" t="n">
-        <v>75.14455803233692</v>
+        <v>75.14455803233687</v>
       </c>
       <c r="L16" t="n">
-        <v>96.15916291555855</v>
+        <v>96.15916291555851</v>
       </c>
       <c r="M16" t="n">
-        <v>101.3863547849441</v>
+        <v>101.386354784944</v>
       </c>
       <c r="N16" t="n">
-        <v>98.97561387780348</v>
+        <v>98.97561387780343</v>
       </c>
       <c r="O16" t="n">
-        <v>91.41999908347222</v>
+        <v>91.41999908347218</v>
       </c>
       <c r="P16" t="n">
-        <v>78.22560250878014</v>
+        <v>78.2256025087801</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.1593524284707</v>
+        <v>54.15935242847068</v>
       </c>
       <c r="R16" t="n">
-        <v>29.08176713833634</v>
+        <v>29.08176713833632</v>
       </c>
       <c r="S16" t="n">
-        <v>11.27168370485054</v>
+        <v>11.27168370485053</v>
       </c>
       <c r="T16" t="n">
-        <v>2.763532259405192</v>
+        <v>2.76353225940519</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03527913522644931</v>
+        <v>0.03527913522644929</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.441894304062582</v>
+        <v>1.441894304062581</v>
       </c>
       <c r="H17" t="n">
-        <v>14.76680004148092</v>
+        <v>14.76680004148091</v>
       </c>
       <c r="I17" t="n">
-        <v>55.58863015737275</v>
+        <v>55.58863015737271</v>
       </c>
       <c r="J17" t="n">
-        <v>122.3789766894317</v>
+        <v>122.3789766894316</v>
       </c>
       <c r="K17" t="n">
-        <v>183.4143625804008</v>
+        <v>183.4143625804007</v>
       </c>
       <c r="L17" t="n">
-        <v>227.5417353883561</v>
+        <v>227.541735388356</v>
       </c>
       <c r="M17" t="n">
-        <v>253.184023218229</v>
+        <v>253.1840232182289</v>
       </c>
       <c r="N17" t="n">
-        <v>257.2808054096469</v>
+        <v>257.2808054096467</v>
       </c>
       <c r="O17" t="n">
-        <v>242.9429689236246</v>
+        <v>242.9429689236244</v>
       </c>
       <c r="P17" t="n">
-        <v>207.3462032920795</v>
+        <v>207.3462032920794</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.7083635278383</v>
+        <v>155.7083635278382</v>
       </c>
       <c r="R17" t="n">
-        <v>90.57439307757124</v>
+        <v>90.57439307757119</v>
       </c>
       <c r="S17" t="n">
-        <v>32.85716645382612</v>
+        <v>32.8571664538261</v>
       </c>
       <c r="T17" t="n">
-        <v>6.311892316033956</v>
+        <v>6.311892316033952</v>
       </c>
       <c r="U17" t="n">
         <v>0.1153515443250065</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7714814665557491</v>
+        <v>0.7714814665557486</v>
       </c>
       <c r="H18" t="n">
-        <v>7.450886795419999</v>
+        <v>7.450886795419994</v>
       </c>
       <c r="I18" t="n">
-        <v>26.56197154588873</v>
+        <v>26.56197154588872</v>
       </c>
       <c r="J18" t="n">
-        <v>72.88808013630435</v>
+        <v>72.88808013630431</v>
       </c>
       <c r="K18" t="n">
         <v>124.5773383955395</v>
       </c>
       <c r="L18" t="n">
-        <v>167.5096052712384</v>
+        <v>167.5096052712383</v>
       </c>
       <c r="M18" t="n">
-        <v>195.4758084338843</v>
+        <v>195.4758084338842</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6494714267077</v>
+        <v>200.6494714267076</v>
       </c>
       <c r="O18" t="n">
-        <v>183.5550662993409</v>
+        <v>183.5550662993408</v>
       </c>
       <c r="P18" t="n">
-        <v>147.3191232057202</v>
+        <v>147.3191232057201</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.47893246771282</v>
+        <v>98.47893246771277</v>
       </c>
       <c r="R18" t="n">
-        <v>47.89952473931223</v>
+        <v>47.8995247393122</v>
       </c>
       <c r="S18" t="n">
-        <v>14.32992987220875</v>
+        <v>14.32992987220874</v>
       </c>
       <c r="T18" t="n">
-        <v>3.109611700722514</v>
+        <v>3.109611700722512</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05075535964182562</v>
+        <v>0.05075535964182559</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6467841458182365</v>
+        <v>0.6467841458182361</v>
       </c>
       <c r="H19" t="n">
-        <v>5.750499041911234</v>
+        <v>5.750499041911231</v>
       </c>
       <c r="I19" t="n">
-        <v>19.4505632215157</v>
+        <v>19.45056322151569</v>
       </c>
       <c r="J19" t="n">
-        <v>45.72763910934932</v>
+        <v>45.72763910934929</v>
       </c>
       <c r="K19" t="n">
-        <v>75.14455803233692</v>
+        <v>75.14455803233687</v>
       </c>
       <c r="L19" t="n">
-        <v>96.15916291555855</v>
+        <v>96.1591629155585</v>
       </c>
       <c r="M19" t="n">
-        <v>101.3863547849441</v>
+        <v>101.386354784944</v>
       </c>
       <c r="N19" t="n">
-        <v>98.97561387780348</v>
+        <v>98.97561387780341</v>
       </c>
       <c r="O19" t="n">
-        <v>91.41999908347222</v>
+        <v>91.41999908347216</v>
       </c>
       <c r="P19" t="n">
-        <v>78.22560250878014</v>
+        <v>78.22560250878009</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.1593524284707</v>
+        <v>54.15935242847066</v>
       </c>
       <c r="R19" t="n">
-        <v>29.08176713833634</v>
+        <v>29.08176713833632</v>
       </c>
       <c r="S19" t="n">
-        <v>11.27168370485054</v>
+        <v>11.27168370485053</v>
       </c>
       <c r="T19" t="n">
-        <v>2.763532259405192</v>
+        <v>2.76353225940519</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03527913522644931</v>
+        <v>0.03527913522644928</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.441894304062582</v>
+        <v>1.441894304062581</v>
       </c>
       <c r="H20" t="n">
-        <v>14.76680004148092</v>
+        <v>14.76680004148091</v>
       </c>
       <c r="I20" t="n">
-        <v>55.58863015737275</v>
+        <v>55.58863015737271</v>
       </c>
       <c r="J20" t="n">
-        <v>122.3789766894317</v>
+        <v>122.3789766894316</v>
       </c>
       <c r="K20" t="n">
-        <v>183.4143625804008</v>
+        <v>183.4143625804007</v>
       </c>
       <c r="L20" t="n">
-        <v>227.5417353883561</v>
+        <v>227.541735388356</v>
       </c>
       <c r="M20" t="n">
-        <v>253.184023218229</v>
+        <v>253.1840232182289</v>
       </c>
       <c r="N20" t="n">
-        <v>257.2808054096469</v>
+        <v>257.2808054096467</v>
       </c>
       <c r="O20" t="n">
-        <v>242.9429689236246</v>
+        <v>242.9429689236244</v>
       </c>
       <c r="P20" t="n">
-        <v>207.3462032920795</v>
+        <v>207.3462032920794</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.7083635278383</v>
+        <v>155.7083635278382</v>
       </c>
       <c r="R20" t="n">
-        <v>90.57439307757124</v>
+        <v>90.57439307757119</v>
       </c>
       <c r="S20" t="n">
-        <v>32.85716645382612</v>
+        <v>32.8571664538261</v>
       </c>
       <c r="T20" t="n">
-        <v>6.311892316033956</v>
+        <v>6.311892316033952</v>
       </c>
       <c r="U20" t="n">
         <v>0.1153515443250065</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7714814665557491</v>
+        <v>0.7714814665557486</v>
       </c>
       <c r="H21" t="n">
-        <v>7.450886795419999</v>
+        <v>7.450886795419994</v>
       </c>
       <c r="I21" t="n">
-        <v>26.56197154588873</v>
+        <v>26.56197154588872</v>
       </c>
       <c r="J21" t="n">
-        <v>72.88808013630435</v>
+        <v>72.88808013630431</v>
       </c>
       <c r="K21" t="n">
         <v>124.5773383955395</v>
       </c>
       <c r="L21" t="n">
-        <v>167.5096052712384</v>
+        <v>167.5096052712383</v>
       </c>
       <c r="M21" t="n">
-        <v>195.4758084338843</v>
+        <v>195.4758084338842</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6494714267077</v>
+        <v>200.6494714267076</v>
       </c>
       <c r="O21" t="n">
-        <v>183.5550662993409</v>
+        <v>183.5550662993408</v>
       </c>
       <c r="P21" t="n">
-        <v>147.3191232057202</v>
+        <v>147.3191232057201</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.47893246771282</v>
+        <v>98.47893246771277</v>
       </c>
       <c r="R21" t="n">
-        <v>47.89952473931223</v>
+        <v>47.8995247393122</v>
       </c>
       <c r="S21" t="n">
-        <v>14.32992987220875</v>
+        <v>14.32992987220874</v>
       </c>
       <c r="T21" t="n">
-        <v>3.109611700722514</v>
+        <v>3.109611700722512</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05075535964182562</v>
+        <v>0.05075535964182559</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6467841458182365</v>
+        <v>0.6467841458182361</v>
       </c>
       <c r="H22" t="n">
-        <v>5.750499041911234</v>
+        <v>5.750499041911231</v>
       </c>
       <c r="I22" t="n">
-        <v>19.4505632215157</v>
+        <v>19.45056322151569</v>
       </c>
       <c r="J22" t="n">
-        <v>45.72763910934932</v>
+        <v>45.72763910934929</v>
       </c>
       <c r="K22" t="n">
-        <v>75.14455803233692</v>
+        <v>75.14455803233687</v>
       </c>
       <c r="L22" t="n">
-        <v>96.15916291555855</v>
+        <v>96.1591629155585</v>
       </c>
       <c r="M22" t="n">
-        <v>101.3863547849441</v>
+        <v>101.386354784944</v>
       </c>
       <c r="N22" t="n">
-        <v>98.97561387780348</v>
+        <v>98.97561387780341</v>
       </c>
       <c r="O22" t="n">
-        <v>91.41999908347222</v>
+        <v>91.41999908347216</v>
       </c>
       <c r="P22" t="n">
-        <v>78.22560250878014</v>
+        <v>78.22560250878009</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.1593524284707</v>
+        <v>54.15935242847066</v>
       </c>
       <c r="R22" t="n">
-        <v>29.08176713833634</v>
+        <v>29.08176713833632</v>
       </c>
       <c r="S22" t="n">
-        <v>11.27168370485054</v>
+        <v>11.27168370485053</v>
       </c>
       <c r="T22" t="n">
-        <v>2.763532259405192</v>
+        <v>2.76353225940519</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03527913522644931</v>
+        <v>0.03527913522644928</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>246.554791632671</v>
       </c>
       <c r="R41" t="n">
-        <v>143.4190823571498</v>
+        <v>143.4190823571508</v>
       </c>
       <c r="S41" t="n">
         <v>52.02733909161363</v>
@@ -34362,16 +34362,16 @@
         <v>2.283152565731808</v>
       </c>
       <c r="H44" t="n">
-        <v>23.38233621380088</v>
+        <v>23.38233621380089</v>
       </c>
       <c r="I44" t="n">
-        <v>88.0212392903756</v>
+        <v>88.02123929037562</v>
       </c>
       <c r="J44" t="n">
         <v>193.7797200757802</v>
       </c>
       <c r="K44" t="n">
-        <v>290.4255681832076</v>
+        <v>290.4255681832077</v>
       </c>
       <c r="L44" t="n">
         <v>360.2985985167226</v>
@@ -34380,25 +34380,25 @@
         <v>400.9016129575556</v>
       </c>
       <c r="N44" t="n">
-        <v>407.3886201849411</v>
+        <v>407.3886201849412</v>
       </c>
       <c r="O44" t="n">
-        <v>384.6855218594454</v>
+        <v>384.685521859446</v>
       </c>
       <c r="P44" t="n">
-        <v>328.3201928929413</v>
+        <v>328.3201928929414</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.5547916326709</v>
+        <v>246.554791632671</v>
       </c>
       <c r="R44" t="n">
         <v>143.4190823571508</v>
       </c>
       <c r="S44" t="n">
-        <v>52.02733909161362</v>
+        <v>52.02733909161363</v>
       </c>
       <c r="T44" t="n">
-        <v>9.994500356490994</v>
+        <v>9.994500356490995</v>
       </c>
       <c r="U44" t="n">
         <v>0.1826522052585446</v>
@@ -34441,7 +34441,7 @@
         <v>1.22159431854226</v>
       </c>
       <c r="H45" t="n">
-        <v>11.79802933960551</v>
+        <v>11.79802933960552</v>
       </c>
       <c r="I45" t="n">
         <v>42.0592780726173</v>
@@ -34465,22 +34465,22 @@
         <v>290.6483640261491</v>
       </c>
       <c r="P45" t="n">
-        <v>233.27093614339</v>
+        <v>233.2709361433901</v>
       </c>
       <c r="Q45" t="n">
         <v>155.9354431879559</v>
       </c>
       <c r="R45" t="n">
-        <v>75.84600514598351</v>
+        <v>75.84600514598353</v>
       </c>
       <c r="S45" t="n">
         <v>22.69057867994065</v>
       </c>
       <c r="T45" t="n">
-        <v>4.923882362896213</v>
+        <v>4.923882362896214</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08036804727251715</v>
+        <v>0.08036804727251716</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>1.02414364065306</v>
       </c>
       <c r="H46" t="n">
-        <v>9.105568005079027</v>
+        <v>9.105568005079029</v>
       </c>
       <c r="I46" t="n">
-        <v>30.79879239345747</v>
+        <v>30.79879239345748</v>
       </c>
       <c r="J46" t="n">
-        <v>72.40695539417131</v>
+        <v>72.40695539417132</v>
       </c>
       <c r="K46" t="n">
         <v>118.9868702504191</v>
       </c>
       <c r="L46" t="n">
-        <v>152.2622281749103</v>
+        <v>152.2622281749104</v>
       </c>
       <c r="M46" t="n">
         <v>160.5391708707337</v>
       </c>
       <c r="N46" t="n">
-        <v>156.7219082101178</v>
+        <v>156.7219082101179</v>
       </c>
       <c r="O46" t="n">
         <v>144.7580484079434</v>
@@ -34547,19 +34547,19 @@
         <v>123.8655181386209</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.75806430959392</v>
+        <v>85.75806430959395</v>
       </c>
       <c r="R46" t="n">
-        <v>46.04922224245482</v>
+        <v>46.04922224245484</v>
       </c>
       <c r="S46" t="n">
         <v>17.84803053756286</v>
       </c>
       <c r="T46" t="n">
-        <v>4.375886464608526</v>
+        <v>4.375886464608527</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05586238039925786</v>
+        <v>0.05586238039925787</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.600378746450332</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M2" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N2" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O2" t="n">
-        <v>6.290631848041485</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34737,7 +34737,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.965429774499174</v>
+        <v>6.965429774499166</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.603447411830878</v>
+        <v>3.047344496795835</v>
       </c>
       <c r="M3" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N3" t="n">
-        <v>8.091688641907773</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O3" t="n">
-        <v>3.53558572687274</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="P3" t="n">
-        <v>4.717407230287371</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>18.21830727030011</v>
       </c>
       <c r="N6" t="n">
-        <v>9.397206256252952</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42269341674559</v>
+        <v>7.601592402698431</v>
       </c>
       <c r="P6" t="n">
         <v>10.00730248430402</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.376113496426193</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>16.17691886905386</v>
@@ -35263,7 +35263,7 @@
         <v>22.05496501936139</v>
       </c>
       <c r="N9" t="n">
-        <v>16.99711954026111</v>
+        <v>23.37323303668731</v>
       </c>
       <c r="O9" t="n">
         <v>19.22635746243337</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21.04072761340925</v>
+        <v>21.04072761340922</v>
       </c>
       <c r="J11" t="n">
-        <v>92.95901720384518</v>
+        <v>92.95901720384509</v>
       </c>
       <c r="K11" t="n">
-        <v>147.6497617855915</v>
+        <v>147.6497617855914</v>
       </c>
       <c r="L11" t="n">
-        <v>189.2296929557332</v>
+        <v>189.2296929557331</v>
       </c>
       <c r="M11" t="n">
-        <v>215.7527603187972</v>
+        <v>215.7527603187971</v>
       </c>
       <c r="N11" t="n">
-        <v>220.0011825752009</v>
+        <v>220.0011825752007</v>
       </c>
       <c r="O11" t="n">
-        <v>205.5520095676005</v>
+        <v>205.5520095676004</v>
       </c>
       <c r="P11" t="n">
-        <v>169.7708414818483</v>
+        <v>169.7708414818481</v>
       </c>
       <c r="Q11" t="n">
         <v>119.5836889232402</v>
       </c>
       <c r="R11" t="n">
-        <v>55.54174318277479</v>
+        <v>55.54174318277473</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.38958479588874</v>
+        <v>10.38958479588872</v>
       </c>
       <c r="J12" t="n">
-        <v>52.27696580297103</v>
+        <v>52.27696580297099</v>
       </c>
       <c r="K12" t="n">
-        <v>102.1781045622062</v>
+        <v>102.1781045622061</v>
       </c>
       <c r="L12" t="n">
-        <v>144.9945185570089</v>
+        <v>144.9945185570088</v>
       </c>
       <c r="M12" t="n">
-        <v>172.3790279215563</v>
+        <v>172.3790279215562</v>
       </c>
       <c r="N12" t="n">
-        <v>179.3064432131661</v>
+        <v>179.306443213166</v>
       </c>
       <c r="O12" t="n">
-        <v>160.3831765771187</v>
+        <v>160.3831765771185</v>
       </c>
       <c r="P12" t="n">
-        <v>125.5482820008916</v>
+        <v>125.5482820008915</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.73189417873434</v>
+        <v>75.73189417873428</v>
       </c>
       <c r="R12" t="n">
-        <v>24.22660534516809</v>
+        <v>24.22660534516806</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.09088312544746</v>
+        <v>25.09088312544743</v>
       </c>
       <c r="K13" t="n">
-        <v>54.17990357962493</v>
+        <v>54.17990357962488</v>
       </c>
       <c r="L13" t="n">
-        <v>74.24040301985735</v>
+        <v>74.2404030198573</v>
       </c>
       <c r="M13" t="n">
-        <v>78.8109148934583</v>
+        <v>78.81091489345823</v>
       </c>
       <c r="N13" t="n">
-        <v>78.2267129022031</v>
+        <v>78.22671290220303</v>
       </c>
       <c r="O13" t="n">
-        <v>68.92081158504779</v>
+        <v>68.92081158504773</v>
       </c>
       <c r="P13" t="n">
-        <v>55.84480185079366</v>
+        <v>55.84480185079362</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.53978966368576</v>
+        <v>29.53978966368573</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21.04072761340925</v>
+        <v>21.04072761340922</v>
       </c>
       <c r="J14" t="n">
-        <v>92.95901720384515</v>
+        <v>92.95901720384509</v>
       </c>
       <c r="K14" t="n">
-        <v>147.6497617855915</v>
+        <v>147.6497617855914</v>
       </c>
       <c r="L14" t="n">
-        <v>189.2296929557332</v>
+        <v>189.2296929557331</v>
       </c>
       <c r="M14" t="n">
-        <v>215.7527603187972</v>
+        <v>215.7527603187971</v>
       </c>
       <c r="N14" t="n">
-        <v>220.0011825752008</v>
+        <v>220.0011825752007</v>
       </c>
       <c r="O14" t="n">
-        <v>205.5520095676005</v>
+        <v>205.5520095676004</v>
       </c>
       <c r="P14" t="n">
-        <v>169.7708414818482</v>
+        <v>169.7708414818481</v>
       </c>
       <c r="Q14" t="n">
         <v>119.5836889232402</v>
       </c>
       <c r="R14" t="n">
-        <v>55.54174318277477</v>
+        <v>55.54174318277473</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.38958479588873</v>
+        <v>10.38958479588872</v>
       </c>
       <c r="J15" t="n">
-        <v>52.27696580297102</v>
+        <v>52.27696580297099</v>
       </c>
       <c r="K15" t="n">
-        <v>102.1781045622062</v>
+        <v>102.1781045622061</v>
       </c>
       <c r="L15" t="n">
-        <v>144.9945185570089</v>
+        <v>144.9945185570088</v>
       </c>
       <c r="M15" t="n">
-        <v>172.3790279215563</v>
+        <v>172.3790279215562</v>
       </c>
       <c r="N15" t="n">
-        <v>179.3064432131661</v>
+        <v>179.306443213166</v>
       </c>
       <c r="O15" t="n">
-        <v>160.3831765771186</v>
+        <v>160.3831765771185</v>
       </c>
       <c r="P15" t="n">
-        <v>125.5482820008916</v>
+        <v>125.5482820008915</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.73189417873432</v>
+        <v>75.73189417873428</v>
       </c>
       <c r="R15" t="n">
-        <v>24.22660534516808</v>
+        <v>24.22660534516806</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.09088312544745</v>
+        <v>25.09088312544743</v>
       </c>
       <c r="K16" t="n">
-        <v>54.17990357962492</v>
+        <v>54.17990357962488</v>
       </c>
       <c r="L16" t="n">
-        <v>74.24040301985733</v>
+        <v>74.2404030198573</v>
       </c>
       <c r="M16" t="n">
-        <v>78.81091489345829</v>
+        <v>78.81091489345823</v>
       </c>
       <c r="N16" t="n">
-        <v>78.22671290220309</v>
+        <v>78.22671290220303</v>
       </c>
       <c r="O16" t="n">
-        <v>68.92081158504777</v>
+        <v>68.92081158504773</v>
       </c>
       <c r="P16" t="n">
-        <v>55.84480185079366</v>
+        <v>55.84480185079362</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.53978966368575</v>
+        <v>29.53978966368573</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21.04072761340925</v>
+        <v>21.04072761340921</v>
       </c>
       <c r="J17" t="n">
-        <v>92.95901720384515</v>
+        <v>92.95901720384509</v>
       </c>
       <c r="K17" t="n">
-        <v>147.6497617855915</v>
+        <v>147.6497617855914</v>
       </c>
       <c r="L17" t="n">
-        <v>189.2296929557332</v>
+        <v>189.229692955733</v>
       </c>
       <c r="M17" t="n">
-        <v>215.7527603187972</v>
+        <v>215.7527603187971</v>
       </c>
       <c r="N17" t="n">
-        <v>220.0011825752008</v>
+        <v>220.0011825752007</v>
       </c>
       <c r="O17" t="n">
-        <v>205.5520095676005</v>
+        <v>205.5520095676003</v>
       </c>
       <c r="P17" t="n">
-        <v>169.7708414818482</v>
+        <v>169.7708414818481</v>
       </c>
       <c r="Q17" t="n">
-        <v>119.5836889232402</v>
+        <v>119.5836889232401</v>
       </c>
       <c r="R17" t="n">
-        <v>55.54174318277477</v>
+        <v>55.54174318277472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.38958479588873</v>
+        <v>10.38958479588872</v>
       </c>
       <c r="J18" t="n">
-        <v>52.27696580297102</v>
+        <v>52.27696580297098</v>
       </c>
       <c r="K18" t="n">
-        <v>102.1781045622062</v>
+        <v>102.1781045622061</v>
       </c>
       <c r="L18" t="n">
-        <v>144.9945185570089</v>
+        <v>144.9945185570087</v>
       </c>
       <c r="M18" t="n">
-        <v>172.3790279215563</v>
+        <v>172.3790279215562</v>
       </c>
       <c r="N18" t="n">
-        <v>179.3064432131661</v>
+        <v>179.306443213166</v>
       </c>
       <c r="O18" t="n">
-        <v>160.3831765771186</v>
+        <v>160.3831765771185</v>
       </c>
       <c r="P18" t="n">
-        <v>125.5482820008916</v>
+        <v>125.5482820008914</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.73189417873432</v>
+        <v>75.73189417873427</v>
       </c>
       <c r="R18" t="n">
-        <v>24.22660534516808</v>
+        <v>24.22660534516805</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.09088312544745</v>
+        <v>25.09088312544742</v>
       </c>
       <c r="K19" t="n">
-        <v>54.17990357962492</v>
+        <v>54.17990357962488</v>
       </c>
       <c r="L19" t="n">
-        <v>74.24040301985733</v>
+        <v>74.24040301985727</v>
       </c>
       <c r="M19" t="n">
-        <v>78.81091489345829</v>
+        <v>78.81091489345822</v>
       </c>
       <c r="N19" t="n">
-        <v>78.22671290220309</v>
+        <v>78.22671290220302</v>
       </c>
       <c r="O19" t="n">
-        <v>68.92081158504777</v>
+        <v>68.92081158504772</v>
       </c>
       <c r="P19" t="n">
-        <v>55.84480185079366</v>
+        <v>55.8448018507936</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.53978966368575</v>
+        <v>29.53978966368571</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>21.04072761340925</v>
+        <v>21.04072761340921</v>
       </c>
       <c r="J20" t="n">
-        <v>92.95901720384515</v>
+        <v>92.95901720384509</v>
       </c>
       <c r="K20" t="n">
-        <v>147.6497617855915</v>
+        <v>147.6497617855914</v>
       </c>
       <c r="L20" t="n">
-        <v>189.2296929557332</v>
+        <v>189.229692955733</v>
       </c>
       <c r="M20" t="n">
-        <v>215.7527603187972</v>
+        <v>215.7527603187971</v>
       </c>
       <c r="N20" t="n">
-        <v>220.0011825752008</v>
+        <v>220.0011825752007</v>
       </c>
       <c r="O20" t="n">
-        <v>205.5520095676005</v>
+        <v>205.5520095676003</v>
       </c>
       <c r="P20" t="n">
-        <v>169.7708414818482</v>
+        <v>169.7708414818481</v>
       </c>
       <c r="Q20" t="n">
-        <v>119.5836889232402</v>
+        <v>119.5836889232401</v>
       </c>
       <c r="R20" t="n">
-        <v>55.54174318277477</v>
+        <v>55.54174318277472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.38958479588873</v>
+        <v>10.38958479588872</v>
       </c>
       <c r="J21" t="n">
-        <v>52.27696580297102</v>
+        <v>52.27696580297098</v>
       </c>
       <c r="K21" t="n">
-        <v>102.1781045622062</v>
+        <v>102.1781045622061</v>
       </c>
       <c r="L21" t="n">
-        <v>144.9945185570089</v>
+        <v>144.9945185570087</v>
       </c>
       <c r="M21" t="n">
-        <v>172.3790279215563</v>
+        <v>172.3790279215562</v>
       </c>
       <c r="N21" t="n">
-        <v>179.3064432131661</v>
+        <v>179.306443213166</v>
       </c>
       <c r="O21" t="n">
-        <v>160.3831765771186</v>
+        <v>160.3831765771185</v>
       </c>
       <c r="P21" t="n">
-        <v>125.5482820008916</v>
+        <v>125.5482820008914</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.73189417873432</v>
+        <v>75.73189417873427</v>
       </c>
       <c r="R21" t="n">
-        <v>24.22660534516808</v>
+        <v>24.22660534516805</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.09088312544745</v>
+        <v>25.09088312544742</v>
       </c>
       <c r="K22" t="n">
-        <v>54.17990357962492</v>
+        <v>54.17990357962488</v>
       </c>
       <c r="L22" t="n">
-        <v>74.24040301985733</v>
+        <v>74.24040301985727</v>
       </c>
       <c r="M22" t="n">
-        <v>78.81091489345829</v>
+        <v>78.81091489345822</v>
       </c>
       <c r="N22" t="n">
-        <v>78.22671290220309</v>
+        <v>78.22671290220302</v>
       </c>
       <c r="O22" t="n">
-        <v>68.92081158504777</v>
+        <v>68.92081158504772</v>
       </c>
       <c r="P22" t="n">
-        <v>55.84480185079366</v>
+        <v>55.8448018507936</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.53978966368575</v>
+        <v>29.53978966368571</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>210.4301170280729</v>
       </c>
       <c r="R41" t="n">
-        <v>108.3864324623534</v>
+        <v>108.3864324623543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.4733367464121</v>
+        <v>53.47333674641212</v>
       </c>
       <c r="J44" t="n">
         <v>164.3597605901937</v>
       </c>
       <c r="K44" t="n">
-        <v>254.6609673883983</v>
+        <v>254.6609673883984</v>
       </c>
       <c r="L44" t="n">
-        <v>321.9865560840996</v>
+        <v>321.9865560840997</v>
       </c>
       <c r="M44" t="n">
         <v>363.4703500581238</v>
       </c>
       <c r="N44" t="n">
-        <v>370.1089973504951</v>
+        <v>370.1089973504952</v>
       </c>
       <c r="O44" t="n">
-        <v>347.2945625034213</v>
+        <v>347.2945625034219</v>
       </c>
       <c r="P44" t="n">
-        <v>290.74483108271</v>
+        <v>290.7448310827101</v>
       </c>
       <c r="Q44" t="n">
         <v>210.4301170280729</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.88689132261729</v>
+        <v>25.8868913226173</v>
       </c>
       <c r="J45" t="n">
-        <v>94.80275941981944</v>
+        <v>94.80275941981945</v>
       </c>
       <c r="K45" t="n">
-        <v>174.8614592621508</v>
+        <v>174.8614592621509</v>
       </c>
       <c r="L45" t="n">
         <v>242.7262586341678</v>
@@ -38119,7 +38119,7 @@
         <v>133.1884048989774</v>
       </c>
       <c r="R45" t="n">
-        <v>52.17308575183937</v>
+        <v>52.17308575183938</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77019941026944</v>
+        <v>51.77019941026946</v>
       </c>
       <c r="K46" t="n">
-        <v>98.02221579770708</v>
+        <v>98.02221579770709</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3434682792091</v>
+        <v>130.3434682792092</v>
       </c>
       <c r="M46" t="n">
         <v>137.9637309792479</v>
@@ -38195,7 +38195,7 @@
         <v>101.4847174806344</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.13850154480897</v>
+        <v>61.138501544809</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
